--- a/hiketours.xlsx
+++ b/hiketours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15195" windowHeight="13035" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15195" windowHeight="13035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wettkampf" sheetId="2" r:id="rId1"/>
@@ -1250,7 +1250,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1">
+    <comment ref="A13" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2020-05-31 5:15 - 6:35 8 °C 
+5:00 zu dunkel! Sonne 5:21, 6 Minuten nach Sommeranfang
+5:00 wäre maximal frühester MESZ-Anfang ohne Licht.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="2">
+    <comment ref="A17" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="2">
+    <comment ref="A18" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="1">
+    <comment ref="A19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1370,7 +1385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="2">
+    <comment ref="A20" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1383,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1397,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1445,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2800,7 +2815,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="371">
   <si>
     <t>Zeit</t>
   </si>
@@ -3910,6 +3925,9 @@
   </si>
   <si>
     <t>Kleinheubacher Weg - Nato</t>
+  </si>
+  <si>
+    <t>Trennfurt-Klingenberg-Blades</t>
   </si>
 </sst>
 </file>
@@ -5058,20 +5076,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5097,32 +5130,17 @@
     <xf numFmtId="4" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5144,70 +5162,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="285">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="18"/>
-      </font>
-    </dxf>
+  <dxfs count="276">
     <dxf>
       <font>
         <color theme="0"/>
@@ -8880,113 +8835,113 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D1 D3:D65542">
-    <cfRule type="cellIs" dxfId="284" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="275" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="274" priority="5" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="273" priority="6" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F1048576">
-    <cfRule type="cellIs" dxfId="281" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="272" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="271" priority="8" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="9" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B65542">
-    <cfRule type="cellIs" dxfId="278" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="268" priority="11" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="267" priority="12" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E65542">
-    <cfRule type="cellIs" dxfId="275" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="265" priority="14" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="264" priority="15" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="272" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="262" priority="17" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="261" priority="18" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="269" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="260" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="259" priority="20" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="258" priority="21" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10 H4:J5 J1 J3:J21 H1:I21 H22:J1048576">
-    <cfRule type="cellIs" dxfId="266" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="257" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="256" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="263" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="254" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="253" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -10218,169 +10173,169 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G1:G2 H35:H65537 H4:H14 H16:H21 H24:H29 Q16:Q20 L24:M24">
-    <cfRule type="cellIs" dxfId="45" priority="67" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="67" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="68" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="68" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="69" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="69" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G13 G17:G20 G25:G28 P17:P20 K24">
-    <cfRule type="cellIs" dxfId="42" priority="70" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="70" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="71" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="72" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="72" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 F17:F20 F25:F28">
-    <cfRule type="cellIs" dxfId="39" priority="73" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="73" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0694328703703704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="74" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="74" stopIfTrue="1" operator="between">
       <formula>0.0694444444444444</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="75" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="75" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A13 H22">
-    <cfRule type="cellIs" dxfId="36" priority="76" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="76" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="77" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="77" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00439814814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="78" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="78" stopIfTrue="1" operator="between">
       <formula>0.00440972222222222</formula>
       <formula>0.416655092592593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O20 J24">
-    <cfRule type="cellIs" dxfId="33" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="56" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="57" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="35" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="36" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:Q28">
-    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="31" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="32" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="33" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:Q28">
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="28" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="29" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="30" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M32">
-    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="26" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="27" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="15" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
@@ -11076,7 +11031,7 @@
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12403,127 +12358,127 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D23:E26 D28:E29 D1 E19:E65529 D4:D65529">
-    <cfRule type="cellIs" dxfId="260" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="251" priority="37" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="250" priority="38" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="39" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F30">
-    <cfRule type="cellIs" dxfId="257" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="248" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="41" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="42" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 B4:B65529">
-    <cfRule type="cellIs" dxfId="254" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="245" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="44" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="45" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F26 E28:F29 F19:F65529 E3:E30">
-    <cfRule type="cellIs" dxfId="251" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="48" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="248" priority="49" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="239" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="51" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K65529 I1:I1048576">
-    <cfRule type="cellIs" dxfId="245" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="236" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="56" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="57" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="242" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="233" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="11" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="12" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="239" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="7" operator="between">
       <formula>0.0118055555555556</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="229" priority="8" operator="between">
       <formula>0.0100694444444444</formula>
       <formula>0.0118054398148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="9" operator="between">
       <formula>0</formula>
       <formula>0.0100693287037037</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="236" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -12537,9 +12492,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12628,26 +12583,26 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="C4" s="27">
-        <f t="shared" ref="C4:C25" si="0">J4/2</f>
+        <f t="shared" ref="C4:C26" si="0">J4/2</f>
         <v>9.4695757113821138E-2</v>
       </c>
       <c r="D4" s="31">
-        <f t="shared" ref="D4:D25" si="1">J4</f>
+        <f t="shared" ref="D4:D26" si="1">J4</f>
         <v>0.18939151422764228</v>
       </c>
       <c r="E4" s="25">
         <v>41</v>
       </c>
       <c r="F4" s="29">
-        <f t="shared" ref="F4:F25" si="2">I4</f>
+        <f t="shared" ref="F4:F26" si="2">I4</f>
         <v>9.2830188679245271</v>
       </c>
       <c r="G4" s="24">
-        <f t="shared" ref="G4:G25" si="3">B4/E4</f>
+        <f t="shared" ref="G4:G26" si="3">B4/E4</f>
         <v>4.4884823848238484E-3</v>
       </c>
       <c r="H4" s="24">
-        <f t="shared" ref="H4:H25" si="4">G4*10</f>
+        <f t="shared" ref="H4:H26" si="4">G4*10</f>
         <v>4.4884823848238484E-2</v>
       </c>
       <c r="I4" s="60">
@@ -12690,11 +12645,11 @@
         <v>4.5467299255178048E-2</v>
       </c>
       <c r="I5" s="60">
-        <f t="shared" ref="I5:I25" si="5">$B$3/B5*E5</f>
+        <f t="shared" ref="I5:I26" si="5">$B$3/B5*E5</f>
         <v>9.1640953716690028</v>
       </c>
       <c r="J5" s="55">
-        <f t="shared" ref="J5:J25" si="6">$E$2/E5*B5</f>
+        <f t="shared" ref="J5:J26" si="6">$E$2/E5*B5</f>
         <v>0.19184926920722378</v>
       </c>
     </row>
@@ -12973,515 +12928,549 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="B13" s="24">
-        <v>7.3611111111111113E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C13" s="27">
         <f t="shared" si="0"/>
-        <v>8.1309445898778351E-2</v>
+        <v>6.1365619546247807E-2</v>
       </c>
       <c r="D13" s="31">
         <f t="shared" si="1"/>
-        <v>0.1626188917975567</v>
+        <v>0.12273123909249561</v>
       </c>
       <c r="E13" s="25">
         <v>19.100000000000001</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" si="2"/>
-        <v>10.811320754716983</v>
+        <v>14.325000000000001</v>
       </c>
       <c r="G13" s="24">
         <f t="shared" si="3"/>
-        <v>3.8539848749272829E-3</v>
+        <v>2.9086678301337983E-3</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="4"/>
-        <v>3.8539848749272826E-2</v>
+        <v>2.9086678301337984E-2</v>
       </c>
       <c r="I13" s="60">
         <f t="shared" si="5"/>
-        <v>10.811320754716983</v>
+        <v>14.325000000000001</v>
       </c>
       <c r="J13" s="55">
         <f t="shared" si="6"/>
-        <v>0.1626188917975567</v>
+        <v>0.12273123909249561</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="24">
-        <v>5.5555555555555552E-2</v>
+        <v>7.3611111111111113E-2</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" si="0"/>
-        <v>7.8663310961968672E-2</v>
+        <v>8.1309445898778351E-2</v>
       </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0.15732662192393734</v>
+        <v>0.1626188917975567</v>
       </c>
       <c r="E14" s="25">
-        <v>14.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" si="2"/>
-        <v>11.175000000000001</v>
+        <v>10.811320754716983</v>
       </c>
       <c r="G14" s="24">
         <f t="shared" si="3"/>
-        <v>3.7285607755406409E-3</v>
+        <v>3.8539848749272829E-3</v>
       </c>
       <c r="H14" s="24">
         <f t="shared" si="4"/>
-        <v>3.7285607755406409E-2</v>
+        <v>3.8539848749272826E-2</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" si="5"/>
-        <v>11.175000000000001</v>
+        <v>10.811320754716983</v>
       </c>
       <c r="J14" s="55">
         <f t="shared" si="6"/>
-        <v>0.15732662192393734</v>
+        <v>0.1626188917975567</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="B15" s="24">
-        <v>3.6458333333333336E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" si="0"/>
-        <v>7.691796875000001E-2</v>
+        <v>7.8663310961968672E-2</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="1"/>
-        <v>0.15383593750000002</v>
+        <v>0.15732662192393734</v>
       </c>
       <c r="E15" s="25">
-        <v>10</v>
+        <v>14.9</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" si="2"/>
-        <v>11.428571428571427</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="3"/>
-        <v>3.6458333333333334E-3</v>
+        <v>3.7285607755406409E-3</v>
       </c>
       <c r="H15" s="24">
         <f t="shared" si="4"/>
-        <v>3.6458333333333336E-2</v>
+        <v>3.7285607755406409E-2</v>
       </c>
       <c r="I15" s="60">
-        <f t="shared" ref="I15" si="7">$B$3/B15*E15</f>
-        <v>11.428571428571427</v>
+        <f t="shared" si="5"/>
+        <v>11.175000000000001</v>
       </c>
       <c r="J15" s="55">
-        <f t="shared" ref="J15" si="8">$E$2/E15*B15</f>
-        <v>0.15383593750000002</v>
+        <f t="shared" si="6"/>
+        <v>0.15732662192393734</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="B16" s="24">
-        <v>3.6805555555555557E-2</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" si="0"/>
-        <v>7.7650520833333334E-2</v>
+        <v>7.691796875000001E-2</v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="1"/>
-        <v>0.15530104166666667</v>
+        <v>0.15383593750000002</v>
       </c>
       <c r="E16" s="25">
         <v>10</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" si="2"/>
-        <v>11.320754716981131</v>
+        <v>11.428571428571427</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="3"/>
-        <v>3.6805555555555558E-3</v>
+        <v>3.6458333333333334E-3</v>
       </c>
       <c r="H16" s="24">
         <f t="shared" si="4"/>
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="I16" s="60">
+        <f t="shared" ref="I16" si="7">$B$3/B16*E16</f>
+        <v>11.428571428571427</v>
+      </c>
+      <c r="J16" s="55">
+        <f t="shared" ref="J16" si="8">$E$2/E16*B16</f>
+        <v>0.15383593750000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="24">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="I16" s="60">
+      <c r="C17" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7650520833333334E-2</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.15530104166666667</v>
+      </c>
+      <c r="E17" s="25">
+        <v>10</v>
+      </c>
+      <c r="F17" s="29">
+        <f t="shared" si="2"/>
+        <v>11.320754716981131</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="3"/>
+        <v>3.6805555555555558E-3</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="4"/>
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="I17" s="60">
         <f t="shared" si="5"/>
         <v>11.320754716981131</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J17" s="55">
         <f t="shared" si="6"/>
         <v>0.15530104166666667</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B18" s="24">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C18" s="27">
         <f t="shared" si="0"/>
         <v>0.11099273989898989</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D18" s="31">
         <f t="shared" si="1"/>
         <v>0.22198547979797978</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E18" s="25">
         <v>9.9</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="29">
         <f t="shared" si="2"/>
         <v>7.92</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="24">
         <f t="shared" si="3"/>
         <v>5.2609427609427613E-3</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H18" s="24">
         <f t="shared" si="4"/>
         <v>5.2609427609427613E-2</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I18" s="60">
         <f t="shared" si="5"/>
         <v>7.92</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J18" s="55">
         <f t="shared" si="6"/>
         <v>0.22198547979797978</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B19" s="24">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C19" s="27">
         <f t="shared" si="0"/>
         <v>0.12285988819007687</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D19" s="31">
         <f t="shared" si="1"/>
         <v>0.24571977638015374</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>9.5399999999999991</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F19" s="29">
         <f t="shared" si="2"/>
         <v>7.1549999999999994</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G19" s="24">
         <f t="shared" si="3"/>
         <v>5.8234334963894714E-3</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H19" s="24">
         <f t="shared" si="4"/>
         <v>5.8234334963894713E-2</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I19" s="60">
         <f t="shared" si="5"/>
         <v>7.1549999999999994</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J19" s="55">
         <f t="shared" si="6"/>
         <v>0.24571977638015374</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B20" s="24">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C20" s="27">
         <f t="shared" si="0"/>
         <v>9.8371279761904767E-2</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D20" s="31">
         <f t="shared" si="1"/>
         <v>0.19674255952380953</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <v>7</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F20" s="29">
         <f t="shared" si="2"/>
         <v>8.9361702127659566</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G20" s="24">
         <f t="shared" si="3"/>
         <v>4.6626984126984126E-3</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H20" s="24">
         <f t="shared" si="4"/>
         <v>4.6626984126984128E-2</v>
       </c>
-      <c r="I19" s="60">
-        <f t="shared" ref="I19" si="9">$B$3/B19*E19</f>
+      <c r="I20" s="60">
+        <f t="shared" ref="I20" si="9">$B$3/B20*E20</f>
         <v>8.9361702127659566</v>
       </c>
-      <c r="J19" s="55">
-        <f t="shared" ref="J19" si="10">$E$2/E19*B19</f>
+      <c r="J20" s="55">
+        <f t="shared" ref="J20" si="10">$E$2/E20*B20</f>
         <v>0.19674255952380953</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B21" s="24">
         <v>3.1898148148148148E-2</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C21" s="27">
         <f t="shared" si="0"/>
         <v>0.1001445209160053</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D21" s="31">
         <f t="shared" si="1"/>
         <v>0.2002890418320106</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E21" s="25">
         <v>6.72</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F21" s="29">
         <f t="shared" si="2"/>
         <v>8.7779390420899848</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G21" s="24">
         <f t="shared" si="3"/>
         <v>4.7467482363315701E-3</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H21" s="24">
         <f t="shared" si="4"/>
         <v>4.7467482363315702E-2</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I21" s="60">
         <f t="shared" si="5"/>
         <v>8.7779390420899848</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J21" s="55">
         <f t="shared" si="6"/>
         <v>0.2002890418320106</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B22" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C22" s="27">
         <f t="shared" si="0"/>
         <v>0.10104166666666667</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D22" s="31">
         <f t="shared" si="1"/>
         <v>0.20208333333333334</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E22" s="25">
         <v>5.8</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F22" s="29">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G22" s="24">
         <f t="shared" si="3"/>
         <v>4.7892720306513406E-3</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H22" s="24">
         <f t="shared" si="4"/>
         <v>4.7892720306513405E-2</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I22" s="60">
         <f t="shared" si="5"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J22" s="55">
         <f t="shared" si="6"/>
         <v>0.20208333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B23" s="24">
         <v>2.0486111111111111E-2</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C23" s="27">
         <f t="shared" si="0"/>
         <v>9.3957767210144941E-2</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D23" s="31">
         <f t="shared" si="1"/>
         <v>0.18791553442028988</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E23" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F23" s="29">
         <f t="shared" si="2"/>
         <v>9.3559322033898287</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G23" s="24">
         <f t="shared" si="3"/>
         <v>4.4535024154589379E-3</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H23" s="24">
         <f t="shared" si="4"/>
         <v>4.4535024154589375E-2</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I23" s="60">
         <f t="shared" si="5"/>
         <v>9.3559322033898287</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J23" s="55">
         <f t="shared" si="6"/>
         <v>0.18791553442028988</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B24" s="24">
         <v>2.179398148148148E-2</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C24" s="27">
         <f t="shared" si="0"/>
         <v>0.10818788807189542</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D24" s="31">
         <f t="shared" si="1"/>
         <v>0.21637577614379083</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E24" s="25">
         <v>4.25</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F24" s="29">
         <f t="shared" si="2"/>
         <v>8.1253319171534795</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G24" s="24">
         <f t="shared" si="3"/>
         <v>5.1279956427015246E-3</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H24" s="24">
         <f t="shared" si="4"/>
         <v>5.1279956427015244E-2</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I24" s="60">
         <f t="shared" si="5"/>
         <v>8.1253319171534795</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J24" s="55">
         <f t="shared" si="6"/>
         <v>0.21637577614379083</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B25" s="24">
         <v>1.2430555555555554E-2</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C25" s="27">
         <f t="shared" si="0"/>
         <v>6.9014117324561405E-2</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D25" s="31">
         <f t="shared" si="1"/>
         <v>0.13802823464912281</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E25" s="25">
         <v>3.8</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F25" s="29">
         <f t="shared" si="2"/>
         <v>12.737430167597765</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G25" s="24">
         <f t="shared" si="3"/>
         <v>3.2711988304093566E-3</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H25" s="24">
         <f t="shared" si="4"/>
         <v>3.2711988304093567E-2</v>
       </c>
-      <c r="I24" s="60">
-        <f t="shared" ref="I24" si="11">$B$3/B24*E24</f>
+      <c r="I25" s="60">
+        <f t="shared" ref="I25" si="11">$B$3/B25*E25</f>
         <v>12.737430167597765</v>
       </c>
-      <c r="J24" s="55">
-        <f t="shared" ref="J24" si="12">$E$2/E24*B24</f>
+      <c r="J25" s="55">
+        <f t="shared" ref="J25" si="12">$E$2/E25*B25</f>
         <v>0.13802823464912281</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B26" s="24">
         <v>1.7083333333333336E-2</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C26" s="27">
         <f t="shared" si="0"/>
         <v>9.9838123268698079E-2</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D26" s="31">
         <f t="shared" si="1"/>
         <v>0.19967624653739616</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E26" s="25">
         <v>3.61</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F26" s="29">
         <f t="shared" si="2"/>
         <v>8.8048780487804859</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G26" s="24">
         <f t="shared" si="3"/>
         <v>4.7322253000923369E-3</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H26" s="24">
         <f t="shared" si="4"/>
         <v>4.7322253000923367E-2</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I26" s="60">
         <f t="shared" si="5"/>
         <v>8.8048780487804859</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J26" s="55">
         <f t="shared" si="6"/>
         <v>0.19967624653739616</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="56"/>
-      <c r="I26"/>
-      <c r="J26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H27" s="56"/>
@@ -13552,218 +13541,223 @@
       <c r="H40" s="56"/>
       <c r="I40"/>
       <c r="J40"/>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H41" s="56"/>
+      <c r="I41"/>
+      <c r="J41"/>
     </row>
   </sheetData>
   <sortState ref="A4:H25">
     <sortCondition descending="1" ref="E4:E25"/>
     <sortCondition ref="B4:B25"/>
   </sortState>
-  <conditionalFormatting sqref="D1 D4:D18 D20:D65511">
-    <cfRule type="cellIs" dxfId="233" priority="52" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="D1 D4:D19 D21:D65512">
+    <cfRule type="cellIs" dxfId="224" priority="52" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="53" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="54" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="54" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 F1:F18 F20:F1048576">
-    <cfRule type="cellIs" dxfId="230" priority="49" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="A1 F1:F19 F21:F1048576">
+    <cfRule type="cellIs" dxfId="221" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="50" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="51" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B4:B18 B20:B65511">
-    <cfRule type="cellIs" dxfId="227" priority="46" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="B1:B2 B4:B19 B21:B65512">
+    <cfRule type="cellIs" dxfId="218" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="47" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="48" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E18 E20:E65511">
-    <cfRule type="cellIs" dxfId="224" priority="43" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="E3:E19 E21:E65512">
+    <cfRule type="cellIs" dxfId="215" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="44" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="45" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C18 C20:C1048576">
-    <cfRule type="cellIs" dxfId="221" priority="40" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="C1:C19 C21:C1048576">
+    <cfRule type="cellIs" dxfId="212" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="41" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="42" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G18 G20:G1048576">
-    <cfRule type="cellIs" dxfId="218" priority="31" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="G1:G19 G21:G1048576">
+    <cfRule type="cellIs" dxfId="209" priority="31" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="32" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="33" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H18 H20:H1048576">
-    <cfRule type="cellIs" dxfId="215" priority="28" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="H1:H19 H21:H1048576">
+    <cfRule type="cellIs" dxfId="206" priority="28" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="29" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="30" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="212" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="203" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="200" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="20" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="21" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="197" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="17" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="18" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="194" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="14" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="15" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="191" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="11" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="12" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="188" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="194" priority="4" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="185" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="5" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="6" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
@@ -14296,113 +14290,113 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E14:E65494 D1 D4:D65494">
-    <cfRule type="cellIs" dxfId="188" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="26" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="27" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F13">
-    <cfRule type="cellIs" dxfId="185" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="23" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="24" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 B4:B65494">
-    <cfRule type="cellIs" dxfId="182" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="173" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="20" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="21" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F65494 E3:E13">
-    <cfRule type="cellIs" dxfId="179" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="170" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="17" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="18" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="176" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="167" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="14" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="15" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="173" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="5" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="6" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="170" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="161" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="167" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -14423,7 +14417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -14511,7 +14505,7 @@
         <v>0.17473379629629629</v>
       </c>
       <c r="C4" s="24">
-        <f>J4</f>
+        <f t="shared" ref="C4:C29" si="0">J4</f>
         <v>0.23525502663440401</v>
       </c>
       <c r="D4" s="25">
@@ -14524,11 +14518,11 @@
         <v>564</v>
       </c>
       <c r="G4" s="25">
-        <f>I4</f>
+        <f t="shared" ref="G4:G29" si="1">I4</f>
         <v>7.4732728356627138</v>
       </c>
       <c r="H4" s="24">
-        <f>B4/D4</f>
+        <f t="shared" ref="H4:H29" si="2">B4/D4</f>
         <v>5.5754242596137938E-3</v>
       </c>
       <c r="I4" s="54">
@@ -14548,7 +14542,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C5" s="24">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>0.25628644314868798</v>
       </c>
       <c r="D5" s="25">
@@ -14561,19 +14555,19 @@
         <v>490</v>
       </c>
       <c r="G5" s="25">
-        <f>I5</f>
+        <f t="shared" si="1"/>
         <v>6.86</v>
       </c>
       <c r="H5" s="24">
-        <f>B5/D5</f>
+        <f t="shared" si="2"/>
         <v>6.0738581146744406E-3</v>
       </c>
       <c r="I5" s="54">
-        <f t="shared" ref="I5:I29" si="0">$B$3/B5*D5</f>
+        <f t="shared" ref="I5:I29" si="3">$B$3/B5*D5</f>
         <v>6.86</v>
       </c>
       <c r="J5" s="55">
-        <f t="shared" ref="J5:J29" si="1">$D$2/D5*B5</f>
+        <f t="shared" ref="J5:J29" si="4">$D$2/D5*B5</f>
         <v>0.25628644314868798</v>
       </c>
     </row>
@@ -14585,7 +14579,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="C6" s="24">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>0.25480072463768116</v>
       </c>
       <c r="D6" s="25">
@@ -14598,19 +14592,19 @@
         <v>525</v>
       </c>
       <c r="G6" s="25">
-        <f>I6</f>
+        <f t="shared" si="1"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="H6" s="24">
-        <f>B6/D6</f>
+        <f t="shared" si="2"/>
         <v>6.0386473429951699E-3</v>
       </c>
       <c r="I6" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="J6" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25480072463768116</v>
       </c>
     </row>
@@ -14622,7 +14616,7 @@
         <v>0.125</v>
       </c>
       <c r="C7" s="24">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>0.27643474842767296</v>
       </c>
       <c r="D7" s="25">
@@ -14635,19 +14629,19 @@
         <v>407</v>
       </c>
       <c r="G7" s="25">
-        <f>I7</f>
+        <f t="shared" si="1"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="H7" s="24">
-        <f>B7/D7</f>
+        <f t="shared" si="2"/>
         <v>6.5513626834381557E-3</v>
       </c>
       <c r="I7" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="J7" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.27643474842767296</v>
       </c>
     </row>
@@ -14659,7 +14653,7 @@
         <v>9.0081018518518519E-2</v>
       </c>
       <c r="C8" s="24">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>0.22253914381667969</v>
       </c>
       <c r="D8" s="25">
@@ -14672,19 +14666,19 @@
         <v>375</v>
       </c>
       <c r="G8" s="25">
-        <f>I8</f>
+        <f t="shared" si="1"/>
         <v>7.9002955158679162</v>
       </c>
       <c r="H8" s="24">
-        <f>B8/D8</f>
+        <f t="shared" si="2"/>
         <v>5.274064316072513E-3</v>
       </c>
       <c r="I8" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.9002955158679162</v>
       </c>
       <c r="J8" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22253914381667969</v>
       </c>
     </row>
@@ -14696,7 +14690,7 @@
         <v>0.10986111111111112</v>
       </c>
       <c r="C9" s="24">
-        <f>J9</f>
+        <f t="shared" si="0"/>
         <v>0.29302083333333334</v>
       </c>
       <c r="D9" s="25">
@@ -14709,19 +14703,19 @@
         <v>320</v>
       </c>
       <c r="G9" s="25">
-        <f>I9</f>
+        <f t="shared" si="1"/>
         <v>5.9999999999999991</v>
       </c>
       <c r="H9" s="24">
-        <f>B9/D9</f>
+        <f t="shared" si="2"/>
         <v>6.9444444444444449E-3</v>
       </c>
       <c r="I9" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999991</v>
       </c>
       <c r="J9" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.29302083333333334</v>
       </c>
     </row>
@@ -14733,7 +14727,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="C10" s="24">
-        <f>J10</f>
+        <f t="shared" si="0"/>
         <v>0.24418402777777781</v>
       </c>
       <c r="D10" s="25">
@@ -14746,19 +14740,19 @@
         <v>330</v>
       </c>
       <c r="G10" s="25">
-        <f>I10</f>
+        <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="H10" s="24">
-        <f>B10/D10</f>
+        <f t="shared" si="2"/>
         <v>5.7870370370370376E-3</v>
       </c>
       <c r="I10" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="J10" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24418402777777781</v>
       </c>
     </row>
@@ -14770,7 +14764,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="C11" s="24">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>0.31395089285714284</v>
       </c>
       <c r="D11" s="25">
@@ -14783,19 +14777,19 @@
         <v>570</v>
       </c>
       <c r="G11" s="25">
-        <f>I11</f>
+        <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
       <c r="H11" s="24">
-        <f>B11/D11</f>
+        <f t="shared" si="2"/>
         <v>7.4404761904761909E-3</v>
       </c>
       <c r="I11" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="J11" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31395089285714284</v>
       </c>
     </row>
@@ -14807,7 +14801,7 @@
         <v>7.2835648148148149E-2</v>
       </c>
       <c r="C12" s="24">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>0.26222697727057259</v>
       </c>
       <c r="D12" s="25">
@@ -14820,19 +14814,19 @@
         <v>200</v>
       </c>
       <c r="G12" s="25">
-        <f>I12</f>
+        <f t="shared" si="1"/>
         <v>6.7045924042587002</v>
       </c>
       <c r="H12" s="24">
-        <f>B12/D12</f>
+        <f t="shared" si="2"/>
         <v>6.2146457464290223E-3</v>
       </c>
       <c r="I12" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7045924042587002</v>
       </c>
       <c r="J12" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26222697727057259</v>
       </c>
     </row>
@@ -14844,7 +14838,7 @@
         <v>7.8657407407407412E-2</v>
       </c>
       <c r="C13" s="24">
-        <f>J13</f>
+        <f t="shared" si="0"/>
         <v>0.29633475942460319</v>
       </c>
       <c r="D13" s="25">
@@ -14857,19 +14851,19 @@
         <v>220</v>
       </c>
       <c r="G13" s="25">
-        <f>I13</f>
+        <f t="shared" si="1"/>
         <v>5.9329017068864021</v>
       </c>
       <c r="H13" s="24">
-        <f>B13/D13</f>
+        <f t="shared" si="2"/>
         <v>7.022982804232805E-3</v>
       </c>
       <c r="I13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.9329017068864021</v>
       </c>
       <c r="J13" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.29633475942460319</v>
       </c>
     </row>
@@ -14881,7 +14875,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C14" s="24">
-        <f>J14</f>
+        <f t="shared" si="0"/>
         <v>0.25603762135922331</v>
       </c>
       <c r="D14" s="25">
@@ -14894,19 +14888,19 @@
         <v>500</v>
       </c>
       <c r="G14" s="25">
-        <f>I14</f>
+        <f t="shared" si="1"/>
         <v>6.8666666666666671</v>
       </c>
       <c r="H14" s="24">
-        <f>B14/D14</f>
+        <f t="shared" si="2"/>
         <v>6.0679611650485436E-3</v>
       </c>
       <c r="I14" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8666666666666671</v>
       </c>
       <c r="J14" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25603762135922331</v>
       </c>
     </row>
@@ -14918,7 +14912,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C15" s="24">
-        <f>J15</f>
+        <f t="shared" si="0"/>
         <v>0.18275727650727652</v>
       </c>
       <c r="D15" s="25">
@@ -14931,19 +14925,19 @@
         <v>210</v>
       </c>
       <c r="G15" s="25">
-        <f>I15</f>
+        <f t="shared" si="1"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="H15" s="24">
-        <f>B15/D15</f>
+        <f t="shared" si="2"/>
         <v>4.3312543312543318E-3</v>
       </c>
       <c r="I15" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="J15" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18275727650727652</v>
       </c>
     </row>
@@ -14955,7 +14949,7 @@
         <v>4.8136574074074075E-2</v>
       </c>
       <c r="C16" s="24">
-        <f>J16</f>
+        <f t="shared" si="0"/>
         <v>0.21607688755910165</v>
       </c>
       <c r="D16" s="29">
@@ -14968,19 +14962,19 @@
         <v>330</v>
       </c>
       <c r="G16" s="25">
-        <f>I16</f>
+        <f t="shared" si="1"/>
         <v>8.1365712911757626</v>
       </c>
       <c r="H16" s="24">
-        <f>B16/D16</f>
+        <f t="shared" si="2"/>
         <v>5.1209121355397947E-3</v>
       </c>
       <c r="I16" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.1365712911757626</v>
       </c>
       <c r="J16" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21607688755910165</v>
       </c>
     </row>
@@ -14992,7 +14986,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="C17" s="24">
-        <f>J17</f>
+        <f t="shared" si="0"/>
         <v>0.36540602731591454</v>
       </c>
       <c r="D17" s="25">
@@ -15005,19 +14999,19 @@
         <v>491</v>
       </c>
       <c r="G17" s="25">
-        <f>I17</f>
+        <f t="shared" si="1"/>
         <v>4.8114285714285714</v>
       </c>
       <c r="H17" s="24">
-        <f>B17/D17</f>
+        <f t="shared" si="2"/>
         <v>8.6599366587490102E-3</v>
       </c>
       <c r="I17" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.8114285714285714</v>
       </c>
       <c r="J17" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36540602731591454</v>
       </c>
     </row>
@@ -15029,7 +15023,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C18" s="24">
-        <f>J18</f>
+        <f t="shared" si="0"/>
         <v>0.28448624595469252</v>
       </c>
       <c r="D18" s="25">
@@ -15042,19 +15036,19 @@
         <v>330</v>
       </c>
       <c r="G18" s="25">
-        <f>I18</f>
+        <f t="shared" si="1"/>
         <v>6.18</v>
       </c>
       <c r="H18" s="24">
-        <f>B18/D18</f>
+        <f t="shared" si="2"/>
         <v>6.7421790722761591E-3</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.18</v>
       </c>
       <c r="J18" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.28448624595469252</v>
       </c>
     </row>
@@ -15066,7 +15060,7 @@
         <v>4.4282407407407409E-2</v>
       </c>
       <c r="C19" s="24">
-        <f>J19</f>
+        <f t="shared" si="0"/>
         <v>0.24715557943856556</v>
       </c>
       <c r="D19" s="25">
@@ -15079,19 +15073,19 @@
         <v>230</v>
       </c>
       <c r="G19" s="25">
-        <f>I19</f>
+        <f t="shared" si="1"/>
         <v>7.1134343962362774</v>
       </c>
       <c r="H19" s="24">
-        <f>B19/D19</f>
+        <f t="shared" si="2"/>
         <v>5.857461297276113E-3</v>
       </c>
       <c r="I19" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1134343962362774</v>
       </c>
       <c r="J19" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24715557943856556</v>
       </c>
     </row>
@@ -15103,7 +15097,7 @@
         <v>4.2453703703703709E-2</v>
       </c>
       <c r="C20" s="24">
-        <f>J20</f>
+        <f t="shared" si="0"/>
         <v>0.24538822298325727</v>
       </c>
       <c r="D20" s="25">
@@ -15116,19 +15110,19 @@
         <v>60</v>
       </c>
       <c r="G20" s="25">
-        <f>I20</f>
+        <f t="shared" si="1"/>
         <v>7.1646673936750256</v>
       </c>
       <c r="H20" s="24">
-        <f>B20/D20</f>
+        <f t="shared" si="2"/>
         <v>5.8155758498224259E-3</v>
       </c>
       <c r="I20" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1646673936750256</v>
       </c>
       <c r="J20" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24538822298325727</v>
       </c>
     </row>
@@ -15140,7 +15134,7 @@
         <v>4.4351851851851858E-2</v>
       </c>
       <c r="C21" s="24">
-        <f>J21</f>
+        <f t="shared" si="0"/>
         <v>0.26358118153364635</v>
       </c>
       <c r="D21" s="25">
@@ -15153,19 +15147,19 @@
         <v>258</v>
       </c>
       <c r="G21" s="25">
-        <f>I21</f>
+        <f t="shared" si="1"/>
         <v>6.6701461377870546</v>
       </c>
       <c r="H21" s="24">
-        <f>B21/D21</f>
+        <f t="shared" si="2"/>
         <v>6.2467396974439241E-3</v>
       </c>
       <c r="I21" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.6701461377870546</v>
       </c>
       <c r="J21" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26358118153364635</v>
       </c>
     </row>
@@ -15177,7 +15171,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C22" s="24">
-        <f>J22</f>
+        <f t="shared" si="0"/>
         <v>0.27470703124999996</v>
       </c>
       <c r="D22" s="25">
@@ -15190,19 +15184,19 @@
         <v>280</v>
       </c>
       <c r="G22" s="25">
-        <f>I22</f>
+        <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
       <c r="H22" s="24">
-        <f>B22/D22</f>
+        <f t="shared" si="2"/>
         <v>6.5104166666666661E-3</v>
       </c>
       <c r="I22" s="54">
-        <f t="shared" ref="I22" si="2">$B$3/B22*D22</f>
+        <f t="shared" ref="I22" si="5">$B$3/B22*D22</f>
         <v>6.4</v>
       </c>
       <c r="J22" s="55">
-        <f t="shared" ref="J22" si="3">$D$2/D22*B22</f>
+        <f t="shared" ref="J22" si="6">$D$2/D22*B22</f>
         <v>0.27470703124999996</v>
       </c>
     </row>
@@ -15214,7 +15208,7 @@
         <v>3.7523148148148146E-2</v>
       </c>
       <c r="C23" s="27">
-        <f>J23</f>
+        <f t="shared" si="0"/>
         <v>0.24973016342446547</v>
       </c>
       <c r="D23" s="25">
@@ -15227,19 +15221,19 @@
         <v>240</v>
       </c>
       <c r="G23" s="25">
-        <f>I23</f>
+        <f t="shared" si="1"/>
         <v>7.0400987045033929</v>
       </c>
       <c r="H23" s="24">
-        <f>B23/D23</f>
+        <f t="shared" si="2"/>
         <v>5.9184776258908748E-3</v>
       </c>
       <c r="I23" s="54">
-        <f t="shared" ref="I23:I27" si="4">$B$3/B23*D23</f>
+        <f t="shared" ref="I23:I27" si="7">$B$3/B23*D23</f>
         <v>7.0400987045033929</v>
       </c>
       <c r="J23" s="55">
-        <f t="shared" ref="J23:J27" si="5">$D$2/D23*B23</f>
+        <f t="shared" ref="J23:J27" si="8">$D$2/D23*B23</f>
         <v>0.24973016342446547</v>
       </c>
     </row>
@@ -15251,7 +15245,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C24" s="24">
-        <f>J24</f>
+        <f t="shared" si="0"/>
         <v>0.22397923434613667</v>
       </c>
       <c r="D24" s="25">
@@ -15264,19 +15258,19 @@
         <v>170</v>
       </c>
       <c r="G24" s="25">
-        <f>I24</f>
+        <f t="shared" si="1"/>
         <v>7.849499999999999</v>
       </c>
       <c r="H24" s="24">
-        <f>B24/D24</f>
+        <f t="shared" si="2"/>
         <v>5.3081937278382915E-3</v>
       </c>
       <c r="I24" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.849499999999999</v>
       </c>
       <c r="J24" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22397923434613667</v>
       </c>
     </row>
@@ -15288,7 +15282,7 @@
         <v>2.390046296296296E-2</v>
       </c>
       <c r="C25" s="24">
-        <f>J25</f>
+        <f t="shared" si="0"/>
         <v>0.20169600694444442</v>
       </c>
       <c r="D25" s="25">
@@ -15301,19 +15295,19 @@
         <v>150</v>
       </c>
       <c r="G25" s="25">
-        <f>I25</f>
+        <f t="shared" si="1"/>
         <v>8.7167070217917679</v>
       </c>
       <c r="H25" s="24">
-        <f>B25/D25</f>
+        <f t="shared" si="2"/>
         <v>4.7800925925925919E-3</v>
       </c>
       <c r="I25" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7167070217917679</v>
       </c>
       <c r="J25" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.20169600694444442</v>
       </c>
     </row>
@@ -15325,7 +15319,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C26" s="24">
-        <f>J26</f>
+        <f t="shared" si="0"/>
         <v>0.29900085034013602</v>
       </c>
       <c r="D26" s="25">
@@ -15338,19 +15332,19 @@
         <v>284</v>
       </c>
       <c r="G26" s="25">
-        <f>I26</f>
+        <f t="shared" si="1"/>
         <v>5.88</v>
       </c>
       <c r="H26" s="24">
-        <f>B26/D26</f>
+        <f t="shared" si="2"/>
         <v>7.0861678004535142E-3</v>
       </c>
       <c r="I26" s="54">
-        <f t="shared" ref="I26" si="6">$B$3/B26*D26</f>
+        <f t="shared" ref="I26" si="9">$B$3/B26*D26</f>
         <v>5.88</v>
       </c>
       <c r="J26" s="55">
-        <f t="shared" ref="J26" si="7">$D$2/D26*B26</f>
+        <f t="shared" ref="J26" si="10">$D$2/D26*B26</f>
         <v>0.29900085034013602</v>
       </c>
     </row>
@@ -15362,7 +15356,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="C27" s="24">
-        <f>J27</f>
+        <f t="shared" si="0"/>
         <v>0.22911093964334703</v>
       </c>
       <c r="D27" s="25">
@@ -15375,19 +15369,19 @@
         <v>40</v>
       </c>
       <c r="G27" s="25">
-        <f>I27</f>
+        <f t="shared" si="1"/>
         <v>7.6736842105263161</v>
       </c>
       <c r="H27" s="24">
-        <f>B27/D27</f>
+        <f t="shared" si="2"/>
         <v>5.4298125285779601E-3</v>
       </c>
       <c r="I27" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.6736842105263161</v>
       </c>
       <c r="J27" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22911093964334703</v>
       </c>
     </row>
@@ -15399,7 +15393,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="C28" s="24">
-        <f>J28</f>
+        <f t="shared" si="0"/>
         <v>0.24906770833333333</v>
       </c>
       <c r="D28" s="25">
@@ -15412,19 +15406,19 @@
         <v>100</v>
       </c>
       <c r="G28" s="25">
-        <f>I28</f>
+        <f t="shared" si="1"/>
         <v>7.0588235294117645</v>
       </c>
       <c r="H28" s="24">
-        <f>B28/D28</f>
+        <f t="shared" si="2"/>
         <v>5.9027777777777776E-3</v>
       </c>
       <c r="I28" s="54">
-        <f t="shared" ref="I28" si="8">$B$3/B28*D28</f>
+        <f t="shared" ref="I28" si="11">$B$3/B28*D28</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="J28" s="55">
-        <f t="shared" ref="J28" si="9">$D$2/D28*B28</f>
+        <f t="shared" ref="J28" si="12">$D$2/D28*B28</f>
         <v>0.24906770833333333</v>
       </c>
     </row>
@@ -15436,7 +15430,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C29" s="24">
-        <f>J29</f>
+        <f t="shared" si="0"/>
         <v>0.31677927927927924</v>
       </c>
       <c r="D29" s="25">
@@ -15449,19 +15443,19 @@
         <v>165</v>
       </c>
       <c r="G29" s="25">
-        <f>I29</f>
+        <f t="shared" si="1"/>
         <v>5.5500000000000007</v>
       </c>
       <c r="H29" s="24">
-        <f>B29/D29</f>
+        <f t="shared" si="2"/>
         <v>7.5075075075075066E-3</v>
       </c>
       <c r="I29" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5500000000000007</v>
       </c>
       <c r="J29" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31677927927927924</v>
       </c>
     </row>
@@ -15482,211 +15476,211 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1 G1:G25 G27:G1048576">
-    <cfRule type="cellIs" dxfId="164" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="41" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="42" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B25 B27:B1048576">
-    <cfRule type="cellIs" dxfId="161" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="44" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="45" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C25 C27:C1048576">
-    <cfRule type="cellIs" dxfId="158" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="149" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="47" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="48" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25 D27:D1048576">
-    <cfRule type="cellIs" dxfId="155" priority="49" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="50" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="51" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E25 E27:E1048576">
-    <cfRule type="cellIs" dxfId="152" priority="52" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="52" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="53" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="54" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="54" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F25 F27:F1048576">
-    <cfRule type="cellIs" dxfId="149" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="56" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="57" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H25 H27:H1048576">
-    <cfRule type="cellIs" dxfId="146" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="26" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="27" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="143" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="140" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="6" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="137" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="134" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="131" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="14" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="15" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="128" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="17" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="18" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="125" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="20" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="21" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="122" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="2" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="3" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
@@ -18212,174 +18206,174 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="119" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>MAX($C:$C)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="29" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="30" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="31" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
       <formula>MAX($E:$E)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="32" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="33" stopIfTrue="1" operator="between">
       <formula>1000</formula>
       <formula>1999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="34" stopIfTrue="1" operator="between">
       <formula>2000</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:I1048576">
-    <cfRule type="cellIs" dxfId="111" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="35" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>499.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="36" stopIfTrue="1" operator="between">
       <formula>500</formula>
       <formula>999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="37" stopIfTrue="1" operator="between">
       <formula>1000</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="108" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
       <formula>MAX($J:$J)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="38" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0208217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="39" stopIfTrue="1" operator="between">
       <formula>0.0208333333333333</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="40" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="23" operator="equal">
       <formula>MAX($D:$D)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="41" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>4.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="42" stopIfTrue="1" operator="between">
       <formula>5</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="43" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="99" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="26" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="27" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="96" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
       <formula>MIN($F:$F)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="95" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="20" operator="equal">
       <formula>MAX($G:$G)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="19" operator="equal">
       <formula>MAX($H:$H)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="93" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>MAX($I:$I)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
       <formula>"Steiermark"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>"Rheinsteig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>"Zillertal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>"Berchtesgaden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
       <formula>"Teneriffa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>"Odenwald"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
       <formula>"Zugspitze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
       <formula>"Chiemgau"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>"Allgäu"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G50">
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
       <formula>"Fewo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>"Hütte"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18450,76 +18444,76 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="213">
+      <c r="B1" s="218">
         <f>AT35</f>
         <v>1172.5725</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="217" t="s">
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218">
+      <c r="F1" s="222"/>
+      <c r="G1" s="223">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>42.195</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="219" t="s">
+      <c r="H1" s="223"/>
+      <c r="I1" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220">
+      <c r="J1" s="224"/>
+      <c r="K1" s="225">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>212.435</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="214" t="s">
+      <c r="L1" s="225"/>
+      <c r="M1" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>25.83</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="215"/>
-      <c r="S1" s="216">
+      <c r="R1" s="220"/>
+      <c r="S1" s="221">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>8.7893083857236824</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="229" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="228" t="s">
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="227">
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="215">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>4.3556526400824656E-2</v>
       </c>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="225" t="s">
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226">
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="214">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>0.12475694444444443</v>
       </c>
-      <c r="AJ1" s="226"/>
+      <c r="AJ1" s="214"/>
       <c r="AK1" s="212" t="s">
         <v>106</v>
       </c>
@@ -18529,24 +18523,24 @@
         <v>0.91526620370370382</v>
       </c>
       <c r="AN1" s="212"/>
-      <c r="AO1" s="210" t="s">
+      <c r="AO1" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="211">
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="229">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="AR1" s="211"/>
-      <c r="AS1" s="209" t="s">
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="208">
+      <c r="AT1" s="227"/>
+      <c r="AU1" s="226">
         <f>AU35</f>
         <v>5.8110995370370366</v>
       </c>
-      <c r="AV1" s="208"/>
+      <c r="AV1" s="226"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -24067,21 +24061,21 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="223" t="s">
+      <c r="K42" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="224"/>
+      <c r="L42" s="211"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="223" t="s">
+      <c r="W42" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="224"/>
+      <c r="X42" s="211"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="221" t="s">
+      <c r="AR42" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="AS42" s="221"/>
+      <c r="AS42" s="208"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -24111,16 +24105,29 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="222" t="s">
+      <c r="AR43" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="AS43" s="222"/>
+      <c r="AS43" s="209"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AR42:AS42"/>
     <mergeCell ref="AR43:AS43"/>
     <mergeCell ref="K42:L42"/>
@@ -24131,86 +24138,73 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
       <formula>$AF$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
       <formula>$AJ$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38 AU42:AU43 G38 K38 O38 S38 W38 AA38 AE38 AI38 AM38 AQ38 AU38 X43">
-    <cfRule type="cellIs" dxfId="75" priority="102" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="102" stopIfTrue="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="103" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="103" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D33 H3:H33 L3:L33 P3:P33 T3:T33 X3:X33 AB3:AB33 AJ3:AJ33 AN3:AN33 AR3:AR33 AV3:AV33 AF3:AF33">
-    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="75" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="76" stopIfTrue="1" operator="between">
       <formula>0.0000000001</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="77" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="77" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00415509259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="78" stopIfTrue="1" operator="between">
       <formula>0.00416666666666667</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B33 F3:F33 J3:J33 N3:N33 R3:R33 V3:V33 Z3:Z33 AD3:AD33 AH3:AH33 AL3:AL33 AP3:AP33 AT3:AT33">
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="73" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="74" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="74" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C33 G3:G33 K3:K33 O3:O33 S3:S33 W3:W33 AA3:AA33 AE3:AE33 AI3:AI33 AM3:AM33 AQ3:AQ33 AU3:AU33">
-    <cfRule type="cellIs" dxfId="66" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="36" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="37" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 F34 J34 N34 R34 V34 Z34 AD34 AH34 AL34 AP34 AT34">
-    <cfRule type="cellIs" dxfId="63" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="321" operator="equal">
       <formula>$P$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="322" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24279,76 +24273,76 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="213">
+      <c r="B1" s="218">
         <f>AT35</f>
         <v>195.14000000000001</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="217" t="s">
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218">
+      <c r="F1" s="222"/>
+      <c r="G1" s="223">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>6</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="219" t="s">
+      <c r="H1" s="223"/>
+      <c r="I1" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220">
+      <c r="J1" s="224"/>
+      <c r="K1" s="225">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>30.200000000000003</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="214" t="s">
+      <c r="L1" s="225"/>
+      <c r="M1" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>2</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="215"/>
-      <c r="S1" s="216">
+      <c r="R1" s="220"/>
+      <c r="S1" s="221">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>2.7975333994708991</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="229" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="217" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="228" t="s">
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="227">
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="215">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>1.5469386880266509E-2</v>
       </c>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="225" t="s">
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226">
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="214">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>1.1458333333333333E-2</v>
       </c>
-      <c r="AJ1" s="226"/>
+      <c r="AJ1" s="214"/>
       <c r="AK1" s="212" t="s">
         <v>106</v>
       </c>
@@ -24358,24 +24352,24 @@
         <v>0.16354166666666667</v>
       </c>
       <c r="AN1" s="212"/>
-      <c r="AO1" s="210" t="s">
+      <c r="AO1" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="211">
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="229">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="AR1" s="211"/>
-      <c r="AS1" s="209" t="s">
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="208">
+      <c r="AT1" s="227"/>
+      <c r="AU1" s="226">
         <f>AU35</f>
         <v>1.0749421296296295</v>
       </c>
-      <c r="AV1" s="208"/>
+      <c r="AV1" s="226"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -29612,19 +29606,19 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="223" t="s">
+      <c r="K42" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="224"/>
+      <c r="L42" s="211"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="223" t="s">
+      <c r="W42" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="224"/>
+      <c r="X42" s="211"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="221"/>
-      <c r="AS42" s="221"/>
+      <c r="AR42" s="208"/>
+      <c r="AS42" s="208"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -29654,21 +29648,14 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="222"/>
-      <c r="AS43" s="222"/>
+      <c r="AR43" s="209"/>
+      <c r="AS43" s="209"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="W42:X42"/>
@@ -29685,73 +29672,80 @@
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
       <formula>$AF$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>$AJ$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38 AU42:AU43 G38 K38 O38 S38 W38 AA38 AE38 AI38 AM38 AQ38 AU38 X43">
-    <cfRule type="cellIs" dxfId="59" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D33 H3:H33 L3:L33 P3:P33 T3:T33 X3:X33 AB3:AB33 AJ3:AJ33 AN3:AN33 AR3:AR33 AV3:AV33 AF3:AF33">
-    <cfRule type="cellIs" dxfId="57" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0000000001</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00415509259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="between">
       <formula>0.00416666666666667</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B33 F3:F33 J3:J33 N3:N33 R3:R33 V3:V33 Z3:Z33 AD3:AD33 AH3:AH33 AL3:AL33 AP3:AP33 AT3:AT33">
-    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C33 G3:G33 K3:K33 O3:O33 S3:S33 W3:W33 AA3:AA33 AE3:AE33 AI3:AI33 AM3:AM33 AQ3:AQ33 AU3:AU33">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 F34 J34 N34 R34 V34 Z34 AD34 AH34 AL34 AP34 AT34">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>$P$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/hiketours.xlsx
+++ b/hiketours.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fanprj\site\fansoft.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF9CEC-6D1C-4D20-BACC-DA86DA559E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15195" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wettkampf" sheetId="2" r:id="rId1"/>
@@ -19,18 +25,27 @@
     <sheet name="calc" sheetId="4" r:id="rId10"/>
     <sheet name="Trail" sheetId="20" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FAN</author>
     <author>fan</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="1">
+    <comment ref="A27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="1">
+    <comment ref="A29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0">
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1">
+    <comment ref="A32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -284,13 +299,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>fan</author>
+    <author>HP</author>
     <author>FAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +330,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{C646BCE9-1F88-4795-BA25-79EE322F000C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>MR bis Camping Röllfeld, 1. Bootsanleger (Einstieg alt/neu egal)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="1">
+    <comment ref="A7" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1">
+    <comment ref="A8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1">
+    <comment ref="A9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1">
+    <comment ref="A10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="1">
+    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1">
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1">
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1">
+    <comment ref="A14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -555,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1">
+    <comment ref="A16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1">
+    <comment ref="A17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="1">
+    <comment ref="A18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -651,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="1">
+    <comment ref="A19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -675,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="1">
+    <comment ref="A20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1">
+    <comment ref="A21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -723,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="1">
+    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -747,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="1">
+    <comment ref="A23" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="1">
+    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="1">
+    <comment ref="A25" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="1">
+    <comment ref="A26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -849,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1">
+    <comment ref="A27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -873,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="1">
+    <comment ref="A28" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -899,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="1">
+    <comment ref="A29" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="1">
+    <comment ref="A30" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1">
+    <comment ref="A31" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -976,14 +1005,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FAN</author>
     <author>fan</author>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1041,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="1">
+    <comment ref="E11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="1">
+    <comment ref="E12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2">
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1282,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="2">
+    <comment ref="A17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1342,7 +1371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="2">
+    <comment ref="A18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="1">
+    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="2">
+    <comment ref="A20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1431,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1491,12 +1520,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>fan</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1544,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1574,13 +1603,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FAN</author>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="1">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1642,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1655,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="1">
+    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1693,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="1">
+    <comment ref="A18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1708,7 +1737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="1">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1">
+    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1739,13 +1768,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FAN</author>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1758,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="1">
+    <comment ref="A18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0">
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="1">
+    <comment ref="E41" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1805,12 +1834,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>fan</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1839,12 +1868,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>fan</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1873,12 +1902,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1891,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1930,7 +1959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1943,7 +1972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1969,7 +1998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1982,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1995,7 +2024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2008,7 +2037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2021,7 +2050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -2034,7 +2063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -2060,7 +2089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000010000000}">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000013000000}">
       <text>
         <r>
           <rPr>
@@ -2125,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2138,7 +2167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2151,7 +2180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2164,7 +2193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2190,7 +2219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2203,7 +2232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2216,7 +2245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2242,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2255,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2268,7 +2297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2294,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2307,7 +2336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000022000000}">
       <text>
         <r>
           <rPr>
@@ -2320,7 +2349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000023000000}">
       <text>
         <r>
           <rPr>
@@ -2333,7 +2362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000024000000}">
       <text>
         <r>
           <rPr>
@@ -2346,7 +2375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000025000000}">
       <text>
         <r>
           <rPr>
@@ -2359,7 +2388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000026000000}">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000027000000}">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000028000000}">
       <text>
         <r>
           <rPr>
@@ -2398,7 +2427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000029000000}">
       <text>
         <r>
           <rPr>
@@ -2411,7 +2440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -2424,7 +2453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -2437,7 +2466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -2478,7 +2507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -2492,7 +2521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000030000000}">
       <text>
         <r>
           <rPr>
@@ -2507,7 +2536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000031000000}">
       <text>
         <r>
           <rPr>
@@ -2522,7 +2551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000032000000}">
       <text>
         <r>
           <rPr>
@@ -2537,7 +2566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000033000000}">
       <text>
         <r>
           <rPr>
@@ -2550,7 +2579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000034000000}">
       <text>
         <r>
           <rPr>
@@ -2563,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000035000000}">
       <text>
         <r>
           <rPr>
@@ -2576,7 +2605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000036000000}">
       <text>
         <r>
           <rPr>
@@ -2589,7 +2618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000037000000}">
       <text>
         <r>
           <rPr>
@@ -2602,7 +2631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000038000000}">
       <text>
         <r>
           <rPr>
@@ -2615,7 +2644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000039000000}">
       <text>
         <r>
           <rPr>
@@ -2628,7 +2657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -2654,7 +2683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -2667,7 +2696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -2680,7 +2709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -2693,7 +2722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -2706,7 +2735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000040000000}">
       <text>
         <r>
           <rPr>
@@ -2719,7 +2748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000041000000}">
       <text>
         <r>
           <rPr>
@@ -2732,7 +2761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000042000000}">
       <text>
         <r>
           <rPr>
@@ -2745,7 +2774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000043000000}">
       <text>
         <r>
           <rPr>
@@ -2758,7 +2787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000044000000}">
       <text>
         <r>
           <rPr>
@@ -2771,7 +2800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2784,7 +2813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2797,7 +2826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000047000000}">
       <text>
         <r>
           <rPr>
@@ -2815,7 +2844,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="372">
   <si>
     <t>Zeit</t>
   </si>
@@ -3928,12 +3957,15 @@
   </si>
   <si>
     <t>Trennfurt-Klingenberg-Blades</t>
+  </si>
+  <si>
+    <t>Halbmarathon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3941,7 +3973,7 @@
     <numFmt numFmtId="167" formatCode="[h]:mm"/>
     <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4235,6 +4267,12 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -5076,35 +5114,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5130,17 +5153,32 @@
     <xf numFmtId="4" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5157,10 +5195,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="3"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="276">
     <dxf>
@@ -7101,14 +7139,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7146,9 +7187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7181,9 +7222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7216,9 +7274,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7391,7 +7466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8829,7 +8904,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J33">
     <sortCondition descending="1" ref="E3:E33"/>
     <sortCondition ref="B3:B33"/>
   </sortState>
@@ -8947,46 +9022,46 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="I21" r:id="rId3"/>
-    <hyperlink ref="I23" r:id="rId4"/>
-    <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="I14" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="I18" r:id="rId8"/>
-    <hyperlink ref="I19" r:id="rId9"/>
-    <hyperlink ref="I22" r:id="rId10"/>
-    <hyperlink ref="I16" r:id="rId11"/>
-    <hyperlink ref="I26" r:id="rId12"/>
-    <hyperlink ref="I31" r:id="rId13"/>
-    <hyperlink ref="I33" r:id="rId14"/>
-    <hyperlink ref="I4" r:id="rId15" location="Weltbestenliste"/>
-    <hyperlink ref="I15" r:id="rId16"/>
-    <hyperlink ref="I17" r:id="rId17"/>
-    <hyperlink ref="I20" r:id="rId18"/>
-    <hyperlink ref="I6" r:id="rId19"/>
-    <hyperlink ref="I25" r:id="rId20"/>
-    <hyperlink ref="I30" r:id="rId21"/>
-    <hyperlink ref="I24" r:id="rId22"/>
-    <hyperlink ref="J15" r:id="rId23"/>
-    <hyperlink ref="J12" r:id="rId24"/>
-    <hyperlink ref="J19" r:id="rId25"/>
-    <hyperlink ref="J7" r:id="rId26"/>
-    <hyperlink ref="J11" r:id="rId27"/>
-    <hyperlink ref="J6" r:id="rId28"/>
-    <hyperlink ref="J20" r:id="rId29"/>
-    <hyperlink ref="I10" r:id="rId30"/>
-    <hyperlink ref="I11" r:id="rId31"/>
-    <hyperlink ref="I3" r:id="rId32" location="Weltbestenliste"/>
-    <hyperlink ref="J10" r:id="rId33"/>
-    <hyperlink ref="I5" r:id="rId34"/>
-    <hyperlink ref="J5" r:id="rId35"/>
-    <hyperlink ref="I29" r:id="rId36"/>
-    <hyperlink ref="I32" r:id="rId37"/>
-    <hyperlink ref="I27" r:id="rId38"/>
-    <hyperlink ref="I13" r:id="rId39"/>
-    <hyperlink ref="I28" r:id="rId40"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I4" r:id="rId15" location="Weltbestenliste" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J11" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J6" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I3" r:id="rId32" location="Weltbestenliste" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I5" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J5" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I32" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I27" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I28" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId41"/>
@@ -8996,7 +9071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -10350,7 +10425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF006600"/>
   </sheetPr>
@@ -11042,10 +11117,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -11134,1230 +11209,1276 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="31">
-        <v>7.946759259259259E-2</v>
+        <v>371</v>
+      </c>
+      <c r="B4" s="24">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="27">
-        <f t="shared" ref="C4:C30" si="0">K4/2</f>
-        <v>0.10478547092013889</v>
-      </c>
-      <c r="D4" s="27">
-        <f t="shared" ref="D4:D30" si="1">K4</f>
-        <v>0.20957094184027777</v>
-      </c>
-      <c r="E4" s="29">
-        <v>16</v>
-      </c>
-      <c r="F4" s="25">
-        <f t="shared" ref="F4:F30" si="2">J4</f>
-        <v>8.3891639965045144</v>
+        <f>K4/2</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D4" s="31">
+        <f>K4</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E4" s="25">
+        <f>$E$2/2</f>
+        <v>21.0975</v>
+      </c>
+      <c r="F4" s="29">
+        <f>J4</f>
+        <v>10.54875</v>
       </c>
       <c r="G4" s="24">
-        <f t="shared" ref="G4:G30" si="3">B4/E4</f>
-        <v>4.9667245370370369E-3</v>
+        <f>B4/E4</f>
+        <v>3.9499150768258478E-3</v>
       </c>
       <c r="H4" s="24">
-        <f t="shared" ref="H4:H30" si="4">G4*3</f>
-        <v>1.4900173611111111E-2</v>
+        <f>G4*3</f>
+        <v>1.1849745230477543E-2</v>
       </c>
       <c r="I4" s="24">
-        <f t="shared" ref="I4:I30" si="5">G4*10</f>
-        <v>4.9667245370370372E-2</v>
+        <f>G4*10</f>
+        <v>3.9499150768258481E-2</v>
       </c>
       <c r="J4" s="60">
         <f>$B$3/B4*E4</f>
-        <v>8.3891639965045144</v>
+        <v>10.54875</v>
       </c>
       <c r="K4" s="55">
         <f>$E$2/E4*B4</f>
-        <v>0.20957094184027777</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="24">
-        <v>6.8657407407407403E-2</v>
+        <v>194</v>
+      </c>
+      <c r="B5" s="31">
+        <v>7.946759259259259E-2</v>
       </c>
       <c r="C5" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10650732741013071</v>
-      </c>
-      <c r="D5" s="31">
-        <f t="shared" si="1"/>
-        <v>0.21301465482026141</v>
-      </c>
-      <c r="E5" s="25">
-        <v>13.6</v>
-      </c>
-      <c r="F5" s="29">
-        <f t="shared" si="2"/>
-        <v>8.2535401213755897</v>
+        <f>K5/2</f>
+        <v>0.10478547092013889</v>
+      </c>
+      <c r="D5" s="27">
+        <f>K5</f>
+        <v>0.20957094184027777</v>
+      </c>
+      <c r="E5" s="29">
+        <v>16</v>
+      </c>
+      <c r="F5" s="25">
+        <f>J5</f>
+        <v>8.3891639965045144</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" si="3"/>
-        <v>5.048338779956427E-3</v>
+        <f>B5/E5</f>
+        <v>4.9667245370370369E-3</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" si="4"/>
-        <v>1.5145016339869281E-2</v>
+        <f>G5*3</f>
+        <v>1.4900173611111111E-2</v>
       </c>
       <c r="I5" s="24">
-        <f t="shared" si="5"/>
-        <v>5.0483387799564267E-2</v>
+        <f>G5*10</f>
+        <v>4.9667245370370372E-2</v>
       </c>
       <c r="J5" s="60">
-        <f t="shared" ref="J5:J30" si="6">$B$3/B5*E5</f>
-        <v>8.2535401213755897</v>
+        <f>$B$3/B5*E5</f>
+        <v>8.3891639965045144</v>
       </c>
       <c r="K5" s="55">
-        <f t="shared" ref="K5:K30" si="7">$E$2/E5*B5</f>
-        <v>0.21301465482026141</v>
+        <f>$E$2/E5*B5</f>
+        <v>0.20957094184027777</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B6" s="24">
-        <v>5.5555555555555552E-2</v>
+        <v>6.8657407407407403E-2</v>
       </c>
       <c r="C6" s="27">
-        <f t="shared" si="0"/>
-        <v>9.76736111111111E-2</v>
+        <f>K6/2</f>
+        <v>0.10650732741013071</v>
       </c>
       <c r="D6" s="31">
-        <f t="shared" si="1"/>
-        <v>0.1953472222222222</v>
+        <f>K6</f>
+        <v>0.21301465482026141</v>
       </c>
       <c r="E6" s="25">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>J6</f>
+        <v>8.2535401213755897</v>
       </c>
       <c r="G6" s="24">
-        <f t="shared" si="3"/>
-        <v>4.6296296296296294E-3</v>
+        <f>B6/E6</f>
+        <v>5.048338779956427E-3</v>
       </c>
       <c r="H6" s="24">
-        <f t="shared" si="4"/>
-        <v>1.3888888888888888E-2</v>
+        <f>G6*3</f>
+        <v>1.5145016339869281E-2</v>
       </c>
       <c r="I6" s="24">
-        <f t="shared" si="5"/>
-        <v>4.6296296296296294E-2</v>
+        <f>G6*10</f>
+        <v>5.0483387799564267E-2</v>
       </c>
       <c r="J6" s="60">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f>$B$3/B6*E6</f>
+        <v>8.2535401213755897</v>
       </c>
       <c r="K6" s="55">
-        <f t="shared" si="7"/>
-        <v>0.1953472222222222</v>
+        <f>$E$2/E6*B6</f>
+        <v>0.21301465482026141</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B7" s="24">
-        <v>6.324074074074075E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C7" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11703697612085773</v>
-      </c>
-      <c r="D7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.23407395224171546</v>
+        <f>K7/2</f>
+        <v>9.76736111111111E-2</v>
+      </c>
+      <c r="D7" s="31">
+        <f>K7</f>
+        <v>0.1953472222222222</v>
       </c>
       <c r="E7" s="25">
-        <v>11.4</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" si="2"/>
-        <v>7.5109809663250351</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="29">
+        <f>J7</f>
+        <v>9</v>
       </c>
       <c r="G7" s="24">
-        <f t="shared" si="3"/>
-        <v>5.547433398310592E-3</v>
+        <f>B7/E7</f>
+        <v>4.6296296296296294E-3</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" si="4"/>
-        <v>1.6642300194931778E-2</v>
+        <f>G7*3</f>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" si="5"/>
-        <v>5.5474333983105917E-2</v>
+        <f>G7*10</f>
+        <v>4.6296296296296294E-2</v>
       </c>
       <c r="J7" s="60">
-        <f t="shared" si="6"/>
-        <v>7.5109809663250351</v>
+        <f>$B$3/B7*E7</f>
+        <v>9</v>
       </c>
       <c r="K7" s="55">
-        <f t="shared" si="7"/>
-        <v>0.23407395224171546</v>
+        <f>$E$2/E7*B7</f>
+        <v>0.1953472222222222</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="B8" s="24">
-        <v>3.6006944444444446E-2</v>
+        <v>6.324074074074075E-2</v>
       </c>
       <c r="C8" s="27">
-        <f t="shared" si="0"/>
-        <v>7.5965651041666665E-2</v>
-      </c>
-      <c r="D8" s="31">
-        <f t="shared" si="1"/>
-        <v>0.15193130208333333</v>
+        <f>K8/2</f>
+        <v>0.11703697612085773</v>
+      </c>
+      <c r="D8" s="27">
+        <f>K8</f>
+        <v>0.23407395224171546</v>
       </c>
       <c r="E8" s="25">
-        <v>10</v>
-      </c>
-      <c r="F8" s="29">
-        <f t="shared" si="2"/>
-        <v>11.571841851494696</v>
+        <v>11.4</v>
+      </c>
+      <c r="F8" s="33">
+        <f>J8</f>
+        <v>7.5109809663250351</v>
       </c>
       <c r="G8" s="24">
-        <f t="shared" si="3"/>
-        <v>3.6006944444444446E-3</v>
+        <f>B8/E8</f>
+        <v>5.547433398310592E-3</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="4"/>
-        <v>1.0802083333333334E-2</v>
+        <f>G8*3</f>
+        <v>1.6642300194931778E-2</v>
       </c>
       <c r="I8" s="24">
-        <f t="shared" si="5"/>
-        <v>3.6006944444444446E-2</v>
+        <f>G8*10</f>
+        <v>5.5474333983105917E-2</v>
       </c>
       <c r="J8" s="60">
-        <f t="shared" si="6"/>
-        <v>11.571841851494696</v>
+        <f>$B$3/B8*E8</f>
+        <v>7.5109809663250351</v>
       </c>
       <c r="K8" s="55">
-        <f t="shared" si="7"/>
-        <v>0.15193130208333333</v>
+        <f>$E$2/E8*B8</f>
+        <v>0.23407395224171546</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="27">
-        <v>4.449074074074074E-2</v>
+        <v>84</v>
+      </c>
+      <c r="B9" s="24">
+        <v>3.6006944444444446E-2</v>
       </c>
       <c r="C9" s="27">
-        <f t="shared" si="0"/>
-        <v>9.3864340277777777E-2</v>
-      </c>
-      <c r="D9" s="27">
-        <f t="shared" si="1"/>
-        <v>0.18772868055555555</v>
+        <f>K9/2</f>
+        <v>7.5965651041666665E-2</v>
+      </c>
+      <c r="D9" s="31">
+        <f>K9</f>
+        <v>0.15193130208333333</v>
       </c>
       <c r="E9" s="25">
         <v>10</v>
       </c>
-      <c r="F9" s="25">
-        <f t="shared" si="2"/>
-        <v>9.3652445369406863</v>
+      <c r="F9" s="29">
+        <f>J9</f>
+        <v>11.571841851494696</v>
       </c>
       <c r="G9" s="24">
-        <f t="shared" si="3"/>
-        <v>4.449074074074074E-3</v>
+        <f>B9/E9</f>
+        <v>3.6006944444444446E-3</v>
       </c>
       <c r="H9" s="24">
-        <f t="shared" si="4"/>
-        <v>1.3347222222222222E-2</v>
+        <f>G9*3</f>
+        <v>1.0802083333333334E-2</v>
       </c>
       <c r="I9" s="24">
-        <f t="shared" si="5"/>
-        <v>4.449074074074074E-2</v>
+        <f>G9*10</f>
+        <v>3.6006944444444446E-2</v>
       </c>
       <c r="J9" s="60">
-        <f t="shared" si="6"/>
-        <v>9.3652445369406863</v>
+        <f>$B$3/B9*E9</f>
+        <v>11.571841851494696</v>
       </c>
       <c r="K9" s="55">
-        <f t="shared" si="7"/>
-        <v>0.18772868055555555</v>
+        <f>$E$2/E9*B9</f>
+        <v>0.15193130208333333</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="24">
-        <v>3.4050925925925922E-2</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="27">
+        <v>4.449074074074074E-2</v>
       </c>
       <c r="C10" s="27">
-        <f t="shared" si="0"/>
-        <v>7.9821045524691353E-2</v>
-      </c>
-      <c r="D10" s="31">
-        <f t="shared" si="1"/>
-        <v>0.15964209104938271</v>
+        <f>K10/2</f>
+        <v>9.3864340277777777E-2</v>
+      </c>
+      <c r="D10" s="27">
+        <f>K10</f>
+        <v>0.18772868055555555</v>
       </c>
       <c r="E10" s="25">
-        <v>9</v>
-      </c>
-      <c r="F10" s="29">
-        <f t="shared" si="2"/>
-        <v>11.012916383412646</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="25">
+        <f>J10</f>
+        <v>9.3652445369406863</v>
       </c>
       <c r="G10" s="24">
-        <f t="shared" si="3"/>
-        <v>3.783436213991769E-3</v>
+        <f>B10/E10</f>
+        <v>4.449074074074074E-3</v>
       </c>
       <c r="H10" s="24">
-        <f t="shared" si="4"/>
-        <v>1.1350308641975306E-2</v>
+        <f>G10*3</f>
+        <v>1.3347222222222222E-2</v>
       </c>
       <c r="I10" s="24">
-        <f t="shared" si="5"/>
-        <v>3.7834362139917692E-2</v>
+        <f>G10*10</f>
+        <v>4.449074074074074E-2</v>
       </c>
       <c r="J10" s="60">
-        <f t="shared" si="6"/>
-        <v>11.012916383412646</v>
+        <f>$B$3/B10*E10</f>
+        <v>9.3652445369406863</v>
       </c>
       <c r="K10" s="55">
-        <f t="shared" si="7"/>
-        <v>0.15964209104938271</v>
+        <f>$E$2/E10*B10</f>
+        <v>0.18772868055555555</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="24">
-        <v>3.1527777777777773E-2</v>
+        <v>3.4050925925925922E-2</v>
       </c>
       <c r="C11" s="27">
-        <f t="shared" si="0"/>
-        <v>8.3144661458333324E-2</v>
+        <f>K11/2</f>
+        <v>7.9821045524691353E-2</v>
       </c>
       <c r="D11" s="31">
-        <f t="shared" si="1"/>
-        <v>0.16628932291666665</v>
+        <f>K11</f>
+        <v>0.15964209104938271</v>
       </c>
       <c r="E11" s="25">
-        <v>8</v>
-      </c>
-      <c r="F11" s="33">
-        <f t="shared" si="2"/>
-        <v>10.572687224669604</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="29">
+        <f>J11</f>
+        <v>11.012916383412646</v>
       </c>
       <c r="G11" s="24">
-        <f t="shared" si="3"/>
-        <v>3.9409722222222216E-3</v>
+        <f>B11/E11</f>
+        <v>3.783436213991769E-3</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="4"/>
-        <v>1.1822916666666666E-2</v>
+        <f>G11*3</f>
+        <v>1.1350308641975306E-2</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" si="5"/>
-        <v>3.9409722222222214E-2</v>
+        <f>G11*10</f>
+        <v>3.7834362139917692E-2</v>
       </c>
       <c r="J11" s="60">
-        <f t="shared" si="6"/>
-        <v>10.572687224669604</v>
+        <f>$B$3/B11*E11</f>
+        <v>11.012916383412646</v>
       </c>
       <c r="K11" s="55">
-        <f t="shared" si="7"/>
-        <v>0.16628932291666665</v>
+        <f>$E$2/E11*B11</f>
+        <v>0.15964209104938271</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="31">
-        <v>4.1099537037037039E-2</v>
+        <v>158</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3.1527777777777773E-2</v>
       </c>
       <c r="C12" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11088203102799092</v>
-      </c>
-      <c r="D12" s="27">
-        <f t="shared" si="1"/>
-        <v>0.22176406205598184</v>
-      </c>
-      <c r="E12" s="29">
-        <v>7.82</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="2"/>
-        <v>7.9279076316530546</v>
+        <f>K12/2</f>
+        <v>8.3144661458333324E-2</v>
+      </c>
+      <c r="D12" s="31">
+        <f>K12</f>
+        <v>0.16628932291666665</v>
+      </c>
+      <c r="E12" s="25">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33">
+        <f>J12</f>
+        <v>10.572687224669604</v>
       </c>
       <c r="G12" s="24">
-        <f t="shared" si="3"/>
-        <v>5.2556952732783933E-3</v>
+        <f>B12/E12</f>
+        <v>3.9409722222222216E-3</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" si="4"/>
-        <v>1.5767085819835179E-2</v>
+        <f>G12*3</f>
+        <v>1.1822916666666666E-2</v>
       </c>
       <c r="I12" s="24">
-        <f t="shared" si="5"/>
-        <v>5.2556952732783935E-2</v>
+        <f>G12*10</f>
+        <v>3.9409722222222214E-2</v>
       </c>
       <c r="J12" s="60">
-        <f t="shared" si="6"/>
-        <v>7.9279076316530546</v>
+        <f>$B$3/B12*E12</f>
+        <v>10.572687224669604</v>
       </c>
       <c r="K12" s="55">
-        <f t="shared" si="7"/>
-        <v>0.22176406205598184</v>
+        <f>$E$2/E12*B12</f>
+        <v>0.16628932291666665</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B13" s="31">
-        <v>4.4791666666666667E-2</v>
+        <v>4.1099537037037039E-2</v>
       </c>
       <c r="C13" s="27">
-        <f t="shared" si="0"/>
-        <v>0.12115284455128204</v>
+        <f>K13/2</f>
+        <v>0.11088203102799092</v>
       </c>
       <c r="D13" s="27">
-        <f t="shared" si="1"/>
-        <v>0.24230568910256409</v>
+        <f>K13</f>
+        <v>0.22176406205598184</v>
       </c>
       <c r="E13" s="29">
-        <v>7.8</v>
+        <v>7.82</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="2"/>
-        <v>7.2558139534883717</v>
+        <f>J13</f>
+        <v>7.9279076316530546</v>
       </c>
       <c r="G13" s="24">
-        <f t="shared" si="3"/>
-        <v>5.7425213675213679E-3</v>
+        <f>B13/E13</f>
+        <v>5.2556952732783933E-3</v>
       </c>
       <c r="H13" s="24">
-        <f t="shared" si="4"/>
-        <v>1.7227564102564104E-2</v>
+        <f>G13*3</f>
+        <v>1.5767085819835179E-2</v>
       </c>
       <c r="I13" s="24">
-        <f t="shared" si="5"/>
-        <v>5.7425213675213679E-2</v>
+        <f>G13*10</f>
+        <v>5.2556952732783935E-2</v>
       </c>
       <c r="J13" s="60">
-        <f t="shared" si="6"/>
-        <v>7.2558139534883717</v>
+        <f>$B$3/B13*E13</f>
+        <v>7.9279076316530546</v>
       </c>
       <c r="K13" s="55">
-        <f t="shared" si="7"/>
-        <v>0.24230568910256409</v>
+        <f>$E$2/E13*B13</f>
+        <v>0.22176406205598184</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="B14" s="31">
-        <v>2.7858796296296298E-2</v>
+        <v>4.4791666666666667E-2</v>
       </c>
       <c r="C14" s="27">
-        <f t="shared" si="0"/>
-        <v>7.8366793981481497E-2</v>
-      </c>
-      <c r="D14" s="31">
-        <f t="shared" si="1"/>
-        <v>0.15673358796296299</v>
+        <f>K14/2</f>
+        <v>0.12115284455128204</v>
+      </c>
+      <c r="D14" s="27">
+        <f>K14</f>
+        <v>0.24230568910256409</v>
       </c>
       <c r="E14" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="F14" s="29">
-        <f t="shared" si="2"/>
-        <v>11.217282924802658</v>
+        <v>7.8</v>
+      </c>
+      <c r="F14" s="25">
+        <f>J14</f>
+        <v>7.2558139534883717</v>
       </c>
       <c r="G14" s="24">
-        <f t="shared" si="3"/>
-        <v>3.7145061728395064E-3</v>
+        <f>B14/E14</f>
+        <v>5.7425213675213679E-3</v>
       </c>
       <c r="H14" s="24">
-        <f t="shared" si="4"/>
-        <v>1.114351851851852E-2</v>
+        <f>G14*3</f>
+        <v>1.7227564102564104E-2</v>
       </c>
       <c r="I14" s="24">
-        <f t="shared" si="5"/>
-        <v>3.7145061728395067E-2</v>
+        <f>G14*10</f>
+        <v>5.7425213675213679E-2</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="6"/>
-        <v>11.217282924802658</v>
+        <f>$B$3/B14*E14</f>
+        <v>7.2558139534883717</v>
       </c>
       <c r="K14" s="55">
-        <f t="shared" si="7"/>
-        <v>0.15673358796296299</v>
+        <f>$E$2/E14*B14</f>
+        <v>0.24230568910256409</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="24">
-        <v>3.4722222222222224E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2.7858796296296298E-2</v>
       </c>
       <c r="C15" s="27">
-        <f t="shared" si="0"/>
-        <v>9.8993524774774785E-2</v>
-      </c>
-      <c r="D15" s="27">
-        <f t="shared" si="1"/>
-        <v>0.19798704954954957</v>
-      </c>
-      <c r="E15" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="F15" s="33">
-        <f t="shared" si="2"/>
-        <v>8.8800000000000008</v>
+        <f>K15/2</f>
+        <v>7.8366793981481497E-2</v>
+      </c>
+      <c r="D15" s="31">
+        <f>K15</f>
+        <v>0.15673358796296299</v>
+      </c>
+      <c r="E15" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="29">
+        <f>J15</f>
+        <v>11.217282924802658</v>
       </c>
       <c r="G15" s="24">
-        <f t="shared" si="3"/>
-        <v>4.6921921921921923E-3</v>
+        <f>B15/E15</f>
+        <v>3.7145061728395064E-3</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" si="4"/>
-        <v>1.4076576576576577E-2</v>
+        <f>G15*3</f>
+        <v>1.114351851851852E-2</v>
       </c>
       <c r="I15" s="24">
-        <f t="shared" si="5"/>
-        <v>4.6921921921921919E-2</v>
+        <f>G15*10</f>
+        <v>3.7145061728395067E-2</v>
       </c>
       <c r="J15" s="60">
-        <f t="shared" si="6"/>
-        <v>8.8800000000000008</v>
+        <f>$B$3/B15*E15</f>
+        <v>11.217282924802658</v>
       </c>
       <c r="K15" s="55">
-        <f t="shared" si="7"/>
-        <v>0.19798704954954957</v>
+        <f>$E$2/E15*B15</f>
+        <v>0.15673358796296299</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B16" s="24">
-        <v>2.5706018518518517E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" s="27">
-        <f t="shared" si="0"/>
-        <v>7.7476103670634913E-2</v>
+        <f>K16/2</f>
+        <v>9.8993524774774785E-2</v>
       </c>
       <c r="D16" s="27">
-        <f t="shared" si="1"/>
-        <v>0.15495220734126983</v>
+        <f>K16</f>
+        <v>0.19798704954954957</v>
       </c>
       <c r="E16" s="25">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="2"/>
-        <v>11.346240432237732</v>
+        <f>J16</f>
+        <v>8.8800000000000008</v>
       </c>
       <c r="G16" s="24">
-        <f t="shared" si="3"/>
-        <v>3.6722883597883594E-3</v>
+        <f>B16/E16</f>
+        <v>4.6921921921921923E-3</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="4"/>
-        <v>1.1016865079365078E-2</v>
+        <f>G16*3</f>
+        <v>1.4076576576576577E-2</v>
       </c>
       <c r="I16" s="24">
-        <f t="shared" si="5"/>
-        <v>3.6722883597883595E-2</v>
+        <f>G16*10</f>
+        <v>4.6921921921921919E-2</v>
       </c>
       <c r="J16" s="60">
-        <f t="shared" si="6"/>
-        <v>11.346240432237732</v>
+        <f>$B$3/B16*E16</f>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K16" s="55">
-        <f t="shared" si="7"/>
-        <v>0.15495220734126983</v>
+        <f>$E$2/E16*B16</f>
+        <v>0.19798704954954957</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B17" s="24">
-        <v>3.7395833333333336E-2</v>
+        <v>2.5706018518518517E-2</v>
       </c>
       <c r="C17" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11688275462962965</v>
-      </c>
-      <c r="D17" s="31">
-        <f t="shared" si="1"/>
-        <v>0.23376550925925929</v>
+        <f>K17/2</f>
+        <v>7.7476103670634913E-2</v>
+      </c>
+      <c r="D17" s="27">
+        <f>K17</f>
+        <v>0.15495220734126983</v>
       </c>
       <c r="E17" s="25">
-        <v>6.75</v>
-      </c>
-      <c r="F17" s="29">
-        <f t="shared" si="2"/>
-        <v>7.5208913649025062</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="33">
+        <f>J17</f>
+        <v>11.346240432237732</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" si="3"/>
-        <v>5.5401234567901241E-3</v>
+        <f>B17/E17</f>
+        <v>3.6722883597883594E-3</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="4"/>
-        <v>1.6620370370370372E-2</v>
+        <f>G17*3</f>
+        <v>1.1016865079365078E-2</v>
       </c>
       <c r="I17" s="24">
-        <f t="shared" si="5"/>
-        <v>5.5401234567901241E-2</v>
+        <f>G17*10</f>
+        <v>3.6722883597883595E-2</v>
       </c>
       <c r="J17" s="60">
-        <f t="shared" si="6"/>
-        <v>7.5208913649025062</v>
+        <f>$B$3/B17*E17</f>
+        <v>11.346240432237732</v>
       </c>
       <c r="K17" s="55">
-        <f t="shared" si="7"/>
-        <v>0.23376550925925929</v>
+        <f>$E$2/E17*B17</f>
+        <v>0.15495220734126983</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B18" s="24">
-        <v>2.2048611111111113E-2</v>
+        <v>3.7395833333333336E-2</v>
       </c>
       <c r="C18" s="27">
-        <f t="shared" si="0"/>
-        <v>7.6257470969945368E-2</v>
+        <f>K18/2</f>
+        <v>0.11688275462962965</v>
       </c>
       <c r="D18" s="31">
-        <f t="shared" si="1"/>
-        <v>0.15251494193989074</v>
+        <f>K18</f>
+        <v>0.23376550925925929</v>
       </c>
       <c r="E18" s="25">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="F18" s="29">
-        <f t="shared" si="2"/>
-        <v>11.527559055118108</v>
+        <f>J18</f>
+        <v>7.5208913649025062</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" si="3"/>
-        <v>3.6145264116575595E-3</v>
+        <f>B18/E18</f>
+        <v>5.5401234567901241E-3</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="4"/>
-        <v>1.0843579234972679E-2</v>
+        <f>G18*3</f>
+        <v>1.6620370370370372E-2</v>
       </c>
       <c r="I18" s="24">
-        <f t="shared" si="5"/>
-        <v>3.6145264116575593E-2</v>
+        <f>G18*10</f>
+        <v>5.5401234567901241E-2</v>
       </c>
       <c r="J18" s="60">
-        <f t="shared" si="6"/>
-        <v>11.527559055118108</v>
+        <f>$B$3/B18*E18</f>
+        <v>7.5208913649025062</v>
       </c>
       <c r="K18" s="55">
-        <f t="shared" si="7"/>
-        <v>0.15251494193989074</v>
+        <f>$E$2/E18*B18</f>
+        <v>0.23376550925925929</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B19" s="24">
-        <v>2.0370370370370369E-2</v>
+        <v>2.2048611111111113E-2</v>
       </c>
       <c r="C19" s="27">
-        <f t="shared" si="0"/>
-        <v>7.162731481481481E-2</v>
-      </c>
-      <c r="D19" s="27">
-        <f t="shared" si="1"/>
-        <v>0.14325462962962962</v>
+        <f>K19/2</f>
+        <v>7.6257470969945368E-2</v>
+      </c>
+      <c r="D19" s="31">
+        <f>K19</f>
+        <v>0.15251494193989074</v>
       </c>
       <c r="E19" s="25">
-        <v>6</v>
-      </c>
-      <c r="F19" s="33">
-        <f t="shared" si="2"/>
-        <v>12.272727272727273</v>
+        <v>6.1</v>
+      </c>
+      <c r="F19" s="29">
+        <f>J19</f>
+        <v>11.527559055118108</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" si="3"/>
-        <v>3.3950617283950613E-3</v>
+        <f>B19/E19</f>
+        <v>3.6145264116575595E-3</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="4"/>
-        <v>1.0185185185185184E-2</v>
+        <f>G19*3</f>
+        <v>1.0843579234972679E-2</v>
       </c>
       <c r="I19" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3950617283950615E-2</v>
+        <f>G19*10</f>
+        <v>3.6145264116575593E-2</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="6"/>
-        <v>12.272727272727273</v>
+        <f>$B$3/B19*E19</f>
+        <v>11.527559055118108</v>
       </c>
       <c r="K19" s="55">
-        <f t="shared" si="7"/>
-        <v>0.14325462962962962</v>
+        <f>$E$2/E19*B19</f>
+        <v>0.15251494193989074</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="31">
-        <v>2.6388888888888889E-2</v>
+        <v>156</v>
+      </c>
+      <c r="B20" s="24">
+        <v>2.0370370370370369E-2</v>
       </c>
       <c r="C20" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10309992283950617</v>
+        <f>K20/2</f>
+        <v>7.162731481481481E-2</v>
       </c>
       <c r="D20" s="27">
-        <f t="shared" si="1"/>
-        <v>0.20619984567901234</v>
-      </c>
-      <c r="E20" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="2"/>
-        <v>8.526315789473685</v>
+        <f>K20</f>
+        <v>0.14325462962962962</v>
+      </c>
+      <c r="E20" s="25">
+        <v>6</v>
+      </c>
+      <c r="F20" s="33">
+        <f>J20</f>
+        <v>12.272727272727273</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" si="3"/>
-        <v>4.886831275720164E-3</v>
+        <f>B20/E20</f>
+        <v>3.3950617283950613E-3</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="4"/>
-        <v>1.4660493827160493E-2</v>
+        <f>G20*3</f>
+        <v>1.0185185185185184E-2</v>
       </c>
       <c r="I20" s="24">
-        <f t="shared" si="5"/>
-        <v>4.8868312757201639E-2</v>
+        <f>G20*10</f>
+        <v>3.3950617283950615E-2</v>
       </c>
       <c r="J20" s="60">
-        <f t="shared" si="6"/>
-        <v>8.526315789473685</v>
+        <f>$B$3/B20*E20</f>
+        <v>12.272727272727273</v>
       </c>
       <c r="K20" s="55">
-        <f t="shared" si="7"/>
-        <v>0.20619984567901234</v>
+        <f>$E$2/E20*B20</f>
+        <v>0.14325462962962962</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="24">
-        <v>1.6701388888888887E-2</v>
+        <v>154</v>
+      </c>
+      <c r="B21" s="31">
+        <v>2.6388888888888889E-2</v>
       </c>
       <c r="C21" s="27">
-        <f t="shared" si="0"/>
-        <v>7.0471510416666661E-2</v>
-      </c>
-      <c r="D21" s="34">
-        <f t="shared" si="1"/>
-        <v>0.14094302083333332</v>
-      </c>
-      <c r="E21" s="25">
-        <v>5</v>
-      </c>
-      <c r="F21" s="30">
-        <f t="shared" si="2"/>
-        <v>12.474012474012476</v>
+        <f>K21/2</f>
+        <v>0.10309992283950617</v>
+      </c>
+      <c r="D21" s="27">
+        <f>K21</f>
+        <v>0.20619984567901234</v>
+      </c>
+      <c r="E21" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="F21" s="25">
+        <f>J21</f>
+        <v>8.526315789473685</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="3"/>
-        <v>3.3402777777777775E-3</v>
+        <f>B21/E21</f>
+        <v>4.886831275720164E-3</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" si="4"/>
-        <v>1.0020833333333333E-2</v>
+        <f>G21*3</f>
+        <v>1.4660493827160493E-2</v>
       </c>
       <c r="I21" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3402777777777774E-2</v>
+        <f>G21*10</f>
+        <v>4.8868312757201639E-2</v>
       </c>
       <c r="J21" s="60">
-        <f t="shared" si="6"/>
-        <v>12.474012474012476</v>
+        <f>$B$3/B21*E21</f>
+        <v>8.526315789473685</v>
       </c>
       <c r="K21" s="55">
-        <f t="shared" si="7"/>
-        <v>0.14094302083333332</v>
+        <f>$E$2/E21*B21</f>
+        <v>0.20619984567901234</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="31">
-        <v>2.6909722222222224E-2</v>
+        <v>160</v>
+      </c>
+      <c r="B22" s="24">
+        <v>1.6701388888888887E-2</v>
       </c>
       <c r="C22" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11827663845486112</v>
-      </c>
-      <c r="D22" s="27">
-        <f t="shared" si="1"/>
-        <v>0.23655327690972225</v>
-      </c>
-      <c r="E22" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="F22" s="25">
-        <f t="shared" si="2"/>
-        <v>7.4322580645161276</v>
+        <f>K22/2</f>
+        <v>7.0471510416666661E-2</v>
+      </c>
+      <c r="D22" s="34">
+        <f>K22</f>
+        <v>0.14094302083333332</v>
+      </c>
+      <c r="E22" s="25">
+        <v>5</v>
+      </c>
+      <c r="F22" s="30">
+        <f>J22</f>
+        <v>12.474012474012476</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="3"/>
-        <v>5.6061921296296302E-3</v>
+        <f>B22/E22</f>
+        <v>3.3402777777777775E-3</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" si="4"/>
-        <v>1.6818576388888892E-2</v>
+        <f>G22*3</f>
+        <v>1.0020833333333333E-2</v>
       </c>
       <c r="I22" s="24">
-        <f t="shared" si="5"/>
-        <v>5.6061921296296301E-2</v>
+        <f>G22*10</f>
+        <v>3.3402777777777774E-2</v>
       </c>
       <c r="J22" s="60">
-        <f t="shared" si="6"/>
-        <v>7.4322580645161276</v>
+        <f>$B$3/B22*E22</f>
+        <v>12.474012474012476</v>
       </c>
       <c r="K22" s="55">
-        <f t="shared" si="7"/>
-        <v>0.23655327690972225</v>
+        <f>$E$2/E22*B22</f>
+        <v>0.14094302083333332</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="24">
-        <v>2.119212962962963E-2</v>
+        <v>92</v>
+      </c>
+      <c r="B23" s="31">
+        <v>2.6909722222222224E-2</v>
       </c>
       <c r="C23" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10161385337752525</v>
-      </c>
-      <c r="D23" s="31">
-        <f t="shared" si="1"/>
-        <v>0.2032277067550505</v>
-      </c>
-      <c r="E23" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F23" s="29">
-        <f t="shared" si="2"/>
-        <v>8.6510103768432547</v>
+        <f>K23/2</f>
+        <v>0.11827663845486112</v>
+      </c>
+      <c r="D23" s="27">
+        <f>K23</f>
+        <v>0.23655327690972225</v>
+      </c>
+      <c r="E23" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="F23" s="25">
+        <f>J23</f>
+        <v>7.4322580645161276</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="3"/>
-        <v>4.8163930976430971E-3</v>
+        <f>B23/E23</f>
+        <v>5.6061921296296302E-3</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="4"/>
-        <v>1.4449179292929291E-2</v>
+        <f>G23*3</f>
+        <v>1.6818576388888892E-2</v>
       </c>
       <c r="I23" s="24">
-        <f t="shared" si="5"/>
-        <v>4.8163930976430971E-2</v>
+        <f>G23*10</f>
+        <v>5.6061921296296301E-2</v>
       </c>
       <c r="J23" s="60">
-        <f t="shared" si="6"/>
-        <v>8.6510103768432547</v>
+        <f>$B$3/B23*E23</f>
+        <v>7.4322580645161276</v>
       </c>
       <c r="K23" s="55">
-        <f t="shared" si="7"/>
-        <v>0.2032277067550505</v>
+        <f>$E$2/E23*B23</f>
+        <v>0.23655327690972225</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="B24" s="24">
-        <v>1.2881944444444446E-2</v>
+        <v>2.119212962962963E-2</v>
       </c>
       <c r="C24" s="27">
-        <f t="shared" si="0"/>
-        <v>6.7944205729166679E-2</v>
-      </c>
-      <c r="D24" s="27">
-        <f t="shared" si="1"/>
-        <v>0.13588841145833336</v>
+        <f>K24/2</f>
+        <v>0.10161385337752525</v>
+      </c>
+      <c r="D24" s="31">
+        <f>K24</f>
+        <v>0.2032277067550505</v>
       </c>
       <c r="E24" s="25">
-        <v>4</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" si="2"/>
-        <v>12.938005390835578</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F24" s="29">
+        <f>J24</f>
+        <v>8.6510103768432547</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="3"/>
-        <v>3.2204861111111115E-3</v>
+        <f>B24/E24</f>
+        <v>4.8163930976430971E-3</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="4"/>
-        <v>9.6614583333333344E-3</v>
+        <f>G24*3</f>
+        <v>1.4449179292929291E-2</v>
       </c>
       <c r="I24" s="24">
-        <f t="shared" si="5"/>
-        <v>3.2204861111111115E-2</v>
+        <f>G24*10</f>
+        <v>4.8163930976430971E-2</v>
       </c>
       <c r="J24" s="60">
-        <f t="shared" si="6"/>
-        <v>12.938005390835578</v>
+        <f>$B$3/B24*E24</f>
+        <v>8.6510103768432547</v>
       </c>
       <c r="K24" s="55">
-        <f t="shared" si="7"/>
-        <v>0.13588841145833336</v>
+        <f>$E$2/E24*B24</f>
+        <v>0.2032277067550505</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B25" s="24">
-        <v>1.7361111111111112E-2</v>
+        <v>1.2881944444444446E-2</v>
       </c>
       <c r="C25" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10346780838041432</v>
-      </c>
-      <c r="D25" s="31">
-        <f t="shared" si="1"/>
-        <v>0.20693561676082864</v>
+        <f>K25/2</f>
+        <v>6.7944205729166679E-2</v>
+      </c>
+      <c r="D25" s="27">
+        <f>K25</f>
+        <v>0.13588841145833336</v>
       </c>
       <c r="E25" s="25">
-        <v>3.54</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="2"/>
-        <v>8.4960000000000004</v>
+        <v>4</v>
+      </c>
+      <c r="F25" s="33">
+        <f>J25</f>
+        <v>12.938005390835578</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" si="3"/>
-        <v>4.9042686754551161E-3</v>
+        <f>B25/E25</f>
+        <v>3.2204861111111115E-3</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="4"/>
-        <v>1.4712806026365349E-2</v>
+        <f>G25*3</f>
+        <v>9.6614583333333344E-3</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" si="5"/>
-        <v>4.904268675455116E-2</v>
+        <f>G25*10</f>
+        <v>3.2204861111111115E-2</v>
       </c>
       <c r="J25" s="60">
-        <f t="shared" si="6"/>
-        <v>8.4960000000000004</v>
+        <f>$B$3/B25*E25</f>
+        <v>12.938005390835578</v>
       </c>
       <c r="K25" s="55">
-        <f t="shared" si="7"/>
-        <v>0.20693561676082864</v>
+        <f>$E$2/E25*B25</f>
+        <v>0.13588841145833336</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="31">
-        <v>1.8749999999999999E-2</v>
+        <v>149</v>
+      </c>
+      <c r="B26" s="24">
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C26" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11302232142857142</v>
-      </c>
-      <c r="D26" s="27">
-        <f t="shared" si="1"/>
-        <v>0.22604464285714285</v>
-      </c>
-      <c r="E26" s="29">
-        <v>3.5</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="2"/>
-        <v>7.7777777777777786</v>
+        <f>K26/2</f>
+        <v>0.10346780838041432</v>
+      </c>
+      <c r="D26" s="31">
+        <f>K26</f>
+        <v>0.20693561676082864</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3.54</v>
+      </c>
+      <c r="F26" s="29">
+        <f>J26</f>
+        <v>8.4960000000000004</v>
       </c>
       <c r="G26" s="24">
-        <f t="shared" si="3"/>
-        <v>5.3571428571428572E-3</v>
+        <f>B26/E26</f>
+        <v>4.9042686754551161E-3</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="4"/>
-        <v>1.607142857142857E-2</v>
+        <f>G26*3</f>
+        <v>1.4712806026365349E-2</v>
       </c>
       <c r="I26" s="24">
-        <f t="shared" si="5"/>
-        <v>5.3571428571428575E-2</v>
+        <f>G26*10</f>
+        <v>4.904268675455116E-2</v>
       </c>
       <c r="J26" s="60">
-        <f t="shared" si="6"/>
-        <v>7.7777777777777786</v>
+        <f>$B$3/B26*E26</f>
+        <v>8.4960000000000004</v>
       </c>
       <c r="K26" s="55">
-        <f t="shared" si="7"/>
-        <v>0.22604464285714285</v>
+        <f>$E$2/E26*B26</f>
+        <v>0.20693561676082864</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="B27" s="31">
-        <v>1.8622685185185183E-2</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="C27" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11555650020424835</v>
+        <f>K27/2</f>
+        <v>0.11302232142857142</v>
       </c>
       <c r="D27" s="27">
-        <f t="shared" si="1"/>
-        <v>0.23111300040849669</v>
+        <f>K27</f>
+        <v>0.22604464285714285</v>
       </c>
       <c r="E27" s="29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="2"/>
-        <v>7.6072094468614049</v>
+        <f>J27</f>
+        <v>7.7777777777777786</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="3"/>
-        <v>5.4772603485838773E-3</v>
+        <f>B27/E27</f>
+        <v>5.3571428571428572E-3</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" si="4"/>
-        <v>1.6431781045751631E-2</v>
+        <f>G27*3</f>
+        <v>1.607142857142857E-2</v>
       </c>
       <c r="I27" s="24">
-        <f t="shared" si="5"/>
-        <v>5.4772603485838775E-2</v>
+        <f>G27*10</f>
+        <v>5.3571428571428575E-2</v>
       </c>
       <c r="J27" s="60">
-        <f t="shared" si="6"/>
-        <v>7.6072094468614049</v>
+        <f>$B$3/B27*E27</f>
+        <v>7.7777777777777786</v>
       </c>
       <c r="K27" s="55">
-        <f t="shared" si="7"/>
-        <v>0.23111300040849669</v>
+        <f>$E$2/E27*B27</f>
+        <v>0.22604464285714285</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="24">
-        <v>9.1782407407407403E-3</v>
+        <v>155</v>
+      </c>
+      <c r="B28" s="31">
+        <v>1.8622685185185183E-2</v>
       </c>
       <c r="C28" s="27">
-        <f t="shared" si="0"/>
-        <v>6.2463849686379927E-2</v>
-      </c>
-      <c r="D28" s="31">
-        <f t="shared" si="1"/>
-        <v>0.12492769937275985</v>
-      </c>
-      <c r="E28" s="25">
-        <v>3.1</v>
-      </c>
-      <c r="F28" s="29">
-        <f t="shared" si="2"/>
-        <v>14.07313997477932</v>
+        <f>K28/2</f>
+        <v>0.11555650020424835</v>
+      </c>
+      <c r="D28" s="27">
+        <f>K28</f>
+        <v>0.23111300040849669</v>
+      </c>
+      <c r="E28" s="29">
+        <v>3.4</v>
+      </c>
+      <c r="F28" s="25">
+        <f>J28</f>
+        <v>7.6072094468614049</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="3"/>
-        <v>2.9607228195937872E-3</v>
+        <f>B28/E28</f>
+        <v>5.4772603485838773E-3</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" si="4"/>
-        <v>8.8821684587813612E-3</v>
+        <f>G28*3</f>
+        <v>1.6431781045751631E-2</v>
       </c>
       <c r="I28" s="24">
-        <f t="shared" si="5"/>
-        <v>2.9607228195937873E-2</v>
+        <f>G28*10</f>
+        <v>5.4772603485838775E-2</v>
       </c>
       <c r="J28" s="60">
-        <f t="shared" si="6"/>
-        <v>14.07313997477932</v>
+        <f>$B$3/B28*E28</f>
+        <v>7.6072094468614049</v>
       </c>
       <c r="K28" s="55">
-        <f t="shared" si="7"/>
-        <v>0.12492769937275985</v>
+        <f>$E$2/E28*B28</f>
+        <v>0.23111300040849669</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="31">
-        <v>1.5972222222222224E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="24">
+        <v>9.1782407407407403E-3</v>
       </c>
       <c r="C29" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10870127688172045</v>
-      </c>
-      <c r="D29" s="27">
-        <f t="shared" si="1"/>
-        <v>0.21740255376344089</v>
-      </c>
-      <c r="E29" s="29">
+        <f>K29/2</f>
+        <v>6.2463849686379927E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <f>K29</f>
+        <v>0.12492769937275985</v>
+      </c>
+      <c r="E29" s="25">
         <v>3.1</v>
       </c>
-      <c r="F29" s="25">
-        <f t="shared" si="2"/>
-        <v>8.086956521739129</v>
+      <c r="F29" s="29">
+        <f>J29</f>
+        <v>14.07313997477932</v>
       </c>
       <c r="G29" s="24">
-        <f t="shared" si="3"/>
-        <v>5.1523297491039436E-3</v>
+        <f>B29/E29</f>
+        <v>2.9607228195937872E-3</v>
       </c>
       <c r="H29" s="24">
-        <f t="shared" si="4"/>
-        <v>1.5456989247311832E-2</v>
+        <f>G29*3</f>
+        <v>8.8821684587813612E-3</v>
       </c>
       <c r="I29" s="24">
-        <f t="shared" si="5"/>
-        <v>5.1523297491039434E-2</v>
+        <f>G29*10</f>
+        <v>2.9607228195937873E-2</v>
       </c>
       <c r="J29" s="60">
-        <f t="shared" si="6"/>
-        <v>8.086956521739129</v>
+        <f>$B$3/B29*E29</f>
+        <v>14.07313997477932</v>
       </c>
       <c r="K29" s="55">
-        <f t="shared" si="7"/>
-        <v>0.21740255376344089</v>
+        <f>$E$2/E29*B29</f>
+        <v>0.12492769937275985</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="24">
-        <v>1.3888888888888888E-2</v>
+        <v>148</v>
+      </c>
+      <c r="B30" s="31">
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C30" s="27">
-        <f t="shared" si="0"/>
-        <v>9.76736111111111E-2</v>
-      </c>
-      <c r="D30" s="31">
-        <f t="shared" si="1"/>
-        <v>0.1953472222222222</v>
-      </c>
-      <c r="E30" s="25">
-        <v>3</v>
-      </c>
-      <c r="F30" s="29">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>K30/2</f>
+        <v>0.10870127688172045</v>
+      </c>
+      <c r="D30" s="27">
+        <f>K30</f>
+        <v>0.21740255376344089</v>
+      </c>
+      <c r="E30" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="F30" s="25">
+        <f>J30</f>
+        <v>8.086956521739129</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="3"/>
-        <v>4.6296296296296294E-3</v>
+        <f>B30/E30</f>
+        <v>5.1523297491039436E-3</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="4"/>
-        <v>1.3888888888888888E-2</v>
+        <f>G30*3</f>
+        <v>1.5456989247311832E-2</v>
       </c>
       <c r="I30" s="24">
-        <f t="shared" si="5"/>
-        <v>4.6296296296296294E-2</v>
+        <f>G30*10</f>
+        <v>5.1523297491039434E-2</v>
       </c>
       <c r="J30" s="60">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f>$B$3/B30*E30</f>
+        <v>8.086956521739129</v>
       </c>
       <c r="K30" s="55">
-        <f t="shared" si="7"/>
-        <v>0.1953472222222222</v>
+        <f>$E$2/E30*B30</f>
+        <v>0.21740255376344089</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
+      <c r="A31" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C31" s="27">
+        <f>K31/2</f>
+        <v>9.76736111111111E-2</v>
+      </c>
+      <c r="D31" s="31">
+        <f>K31</f>
+        <v>0.1953472222222222</v>
+      </c>
+      <c r="E31" s="25">
+        <v>3</v>
+      </c>
+      <c r="F31" s="29">
+        <f>J31</f>
+        <v>9</v>
+      </c>
+      <c r="G31" s="24">
+        <f>B31/E31</f>
+        <v>4.6296296296296294E-3</v>
+      </c>
+      <c r="H31" s="24">
+        <f>G31*3</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I31" s="24">
+        <f>G31*10</f>
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="J31" s="60">
+        <f>$B$3/B31*E31</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="55">
+        <f>$E$2/E31*B31</f>
+        <v>0.1953472222222222</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
     </row>
   </sheetData>
-  <sortState ref="A4:I31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I31">
     <sortCondition descending="1" ref="E4:E31"/>
     <sortCondition ref="B4:B31"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="D23:E26 D28:E29 D1 E19:E65529 D4:D65529">
+  <conditionalFormatting sqref="D23:E26 D28:E28 D1 D30:E30 E19:E65530 D4:D65530">
     <cfRule type="cellIs" dxfId="251" priority="37" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
@@ -12371,7 +12492,7 @@
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 F1:F30">
+  <conditionalFormatting sqref="A1 F1:F31">
     <cfRule type="cellIs" dxfId="248" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
@@ -12385,7 +12506,7 @@
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B4:B65529">
+  <conditionalFormatting sqref="B1:B2 B4:B65530">
     <cfRule type="cellIs" dxfId="245" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
@@ -12399,7 +12520,7 @@
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:F26 E28:F29 F19:F65529 E3:E30">
+  <conditionalFormatting sqref="E23:F26 E28:F28 E30:F30 E3:E31 F19:F65530">
     <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
@@ -12427,7 +12548,7 @@
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:K65529 I1:I1048576">
+  <conditionalFormatting sqref="J32:K65530 I1:I1048576">
     <cfRule type="cellIs" dxfId="236" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
@@ -12491,10 +12612,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13548,7 +13669,7 @@
       <c r="J41"/>
     </row>
   </sheetData>
-  <sortState ref="A4:H25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H25">
     <sortCondition descending="1" ref="E4:E25"/>
     <sortCondition ref="B4:B25"/>
   </sortState>
@@ -13769,7 +13890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14285,7 +14406,7 @@
       <c r="M13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:H9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H9">
     <sortCondition ref="B4:B9"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -14402,9 +14523,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="I11" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -14414,7 +14535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15470,7 +15591,7 @@
       <c r="K31"/>
     </row>
   </sheetData>
-  <sortState ref="A4:H29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H29">
     <sortCondition descending="1" ref="D4:D29"/>
     <sortCondition ref="B4:B29"/>
   </sortState>
@@ -15693,7 +15814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
@@ -16394,7 +16515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -18201,7 +18322,7 @@
       <c r="N51" s="205"/>
     </row>
   </sheetData>
-  <sortState ref="A2:N42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N42">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -18385,7 +18506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -18444,76 +18565,76 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="218">
+      <c r="B1" s="213">
         <f>AT35</f>
         <v>1172.5725</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="222" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223">
+      <c r="F1" s="217"/>
+      <c r="G1" s="218">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>42.195</v>
       </c>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225">
+      <c r="J1" s="219"/>
+      <c r="K1" s="220">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>212.435</v>
       </c>
-      <c r="L1" s="225"/>
-      <c r="M1" s="219" t="s">
+      <c r="L1" s="220"/>
+      <c r="M1" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>25.83</v>
       </c>
-      <c r="Q1" s="220" t="s">
+      <c r="Q1" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="220"/>
-      <c r="S1" s="221">
+      <c r="R1" s="215"/>
+      <c r="S1" s="216">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>8.7893083857236824</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="217" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="216" t="s">
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="215">
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="227">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>4.3556526400824656E-2</v>
       </c>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="213" t="s">
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214">
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>0.12475694444444443</v>
       </c>
-      <c r="AJ1" s="214"/>
+      <c r="AJ1" s="226"/>
       <c r="AK1" s="212" t="s">
         <v>106</v>
       </c>
@@ -18523,24 +18644,24 @@
         <v>0.91526620370370382</v>
       </c>
       <c r="AN1" s="212"/>
-      <c r="AO1" s="228" t="s">
+      <c r="AO1" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="229">
+      <c r="AP1" s="210"/>
+      <c r="AQ1" s="211">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="227" t="s">
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="227"/>
-      <c r="AU1" s="226">
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="208">
         <f>AU35</f>
         <v>5.8110995370370366</v>
       </c>
-      <c r="AV1" s="226"/>
+      <c r="AV1" s="208"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -24061,21 +24182,21 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="210" t="s">
+      <c r="K42" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="211"/>
+      <c r="L42" s="224"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="210" t="s">
+      <c r="W42" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="211"/>
+      <c r="X42" s="224"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="208" t="s">
+      <c r="AR42" s="221" t="s">
         <v>124</v>
       </c>
-      <c r="AS42" s="208"/>
+      <c r="AS42" s="221"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -24105,29 +24226,16 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="209" t="s">
+      <c r="AR43" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="AS43" s="209"/>
+      <c r="AS43" s="222"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AR42:AS42"/>
     <mergeCell ref="AR43:AS43"/>
     <mergeCell ref="K42:L42"/>
@@ -24138,6 +24246,19 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
     <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
@@ -24215,7 +24336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -24273,76 +24394,76 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="218">
+      <c r="B1" s="213">
         <f>AT35</f>
         <v>195.14000000000001</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="222" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223">
+      <c r="F1" s="217"/>
+      <c r="G1" s="218">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>6</v>
       </c>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225">
+      <c r="J1" s="219"/>
+      <c r="K1" s="220">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>30.200000000000003</v>
       </c>
-      <c r="L1" s="225"/>
-      <c r="M1" s="219" t="s">
+      <c r="L1" s="220"/>
+      <c r="M1" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>2</v>
       </c>
-      <c r="Q1" s="220" t="s">
+      <c r="Q1" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="220"/>
-      <c r="S1" s="221">
+      <c r="R1" s="215"/>
+      <c r="S1" s="216">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>2.7975333994708991</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="217" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="229" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="216" t="s">
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="216"/>
-      <c r="AE1" s="215">
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="227">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>1.5469386880266509E-2</v>
       </c>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="213" t="s">
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="214">
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="226">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>1.1458333333333333E-2</v>
       </c>
-      <c r="AJ1" s="214"/>
+      <c r="AJ1" s="226"/>
       <c r="AK1" s="212" t="s">
         <v>106</v>
       </c>
@@ -24352,24 +24473,24 @@
         <v>0.16354166666666667</v>
       </c>
       <c r="AN1" s="212"/>
-      <c r="AO1" s="228" t="s">
+      <c r="AO1" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="229">
+      <c r="AP1" s="210"/>
+      <c r="AQ1" s="211">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="227" t="s">
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="227"/>
-      <c r="AU1" s="226">
+      <c r="AT1" s="209"/>
+      <c r="AU1" s="208">
         <f>AU35</f>
         <v>1.0749421296296295</v>
       </c>
-      <c r="AV1" s="226"/>
+      <c r="AV1" s="208"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -29606,19 +29727,19 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="210" t="s">
+      <c r="K42" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="211"/>
+      <c r="L42" s="224"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="210" t="s">
+      <c r="W42" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="211"/>
+      <c r="X42" s="224"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="208"/>
-      <c r="AS42" s="208"/>
+      <c r="AR42" s="221"/>
+      <c r="AS42" s="221"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -29648,14 +29769,21 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="209"/>
-      <c r="AS43" s="209"/>
+      <c r="AR43" s="222"/>
+      <c r="AS43" s="222"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="W42:X42"/>
@@ -29672,13 +29800,6 @@
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
     <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">

--- a/hiketours.xlsx
+++ b/hiketours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fanprj\site\fansoft.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF9CEC-6D1C-4D20-BACC-DA86DA559E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910BB599-A157-4B41-9AA7-196D3960B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wettkampf" sheetId="2" r:id="rId1"/>
@@ -1907,7 +1907,111 @@
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Innerorts (Parkplatz bis letztes Haus)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feldweg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Echter Trail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Waldweg/Eselsweg Gipfel 512</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ab Wintersbach (207)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Einstieg Pfad Wellig</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alter Schulweg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Geishöhe Biergarten bis Turm (535)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1920,7 +2024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1929,11 +2033,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unteres Drittel</t>
+          <t>Neuer Trail</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1942,11 +2046,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Steinmännchen steil</t>
+          <t>Wirtschaftswege</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1955,11 +2059,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Fuchsleite</t>
+          <t>Alter Trail</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1972,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000043000000}">
       <text>
         <r>
           <rPr>
@@ -1981,11 +2085,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unterster Pfad (Wasserhaus)</t>
+          <t>Ab Kleinheubach 127 min</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1994,11 +2098,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Überleitung MIL abwärts</t>
+          <t>Einstieg</t>
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2007,11 +2111,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Klinge</t>
+          <t>Waldautobahn</t>
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2020,11 +2124,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trail</t>
+          <t>Holweg/Wege</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000047000000}">
       <text>
         <r>
           <rPr>
@@ -2033,189 +2137,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Überleitung MIL aufwärts</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Einstieg Turnplatz</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Waldrand</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Klingenpfad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Weglos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gipfel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Einstieg Turnplatz</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Trail steil</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gipfel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ohrenbach</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Verwilderter Forstweg</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Echter Trail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Werdender Trail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Weglos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gipfel</t>
+          <t>Gipfel 455 max</t>
         </r>
       </text>
     </comment>
@@ -2297,7 +2219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00001F000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2310,7 +2232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000020000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2319,11 +2241,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Neuer Trail</t>
+          <t>Unteres Drittel</t>
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000021000000}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2332,11 +2254,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Wirtschaftswege</t>
+          <t>Steinmännchen steil</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000022000000}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2345,11 +2267,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alter Trail</t>
+          <t>Fuchsleite</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000023000000}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2362,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000024000000}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2371,11 +2293,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Miltenberger Weg nach unterem Drittel bis Normalweg</t>
+          <t>Unterster Pfad (Wasserhaus)</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000025000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000010000000}">
       <text>
         <r>
           <rPr>
@@ -2384,11 +2306,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alternative: Miltenberger Weg Einstieg bis Normalweg</t>
+          <t>Einstieg Turnplatz</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000026000000}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2397,11 +2319,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Normalweg bis Trail</t>
+          <t>Trail steil</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000027000000}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2410,76 +2332,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Echter Trail</t>
+          <t>Gipfel</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Springer-Schlucht</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Innerorts (Parkplatz bis letztes Haus)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feldweg</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Echter Trail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Waldweg/Eselsweg Gipfel 512</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002D000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -2493,7 +2350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002E000000}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -2507,7 +2364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002F000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -2521,7 +2378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000030000000}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000030000000}">
       <text>
         <r>
           <rPr>
@@ -2536,7 +2393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000031000000}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000031000000}">
       <text>
         <r>
           <rPr>
@@ -2551,7 +2408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000032000000}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000032000000}">
       <text>
         <r>
           <rPr>
@@ -2566,7 +2423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000033000000}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000033000000}">
       <text>
         <r>
           <rPr>
@@ -2576,6 +2433,71 @@
             <family val="2"/>
           </rPr>
           <t>Gipfel Winkelberg 484</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Miltenberger Weg nach unterem Drittel bis Normalweg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alternative: Miltenberger Weg Einstieg bis Normalweg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Normalweg bis Trail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Echter Trail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Springer-Schlucht</t>
         </r>
       </text>
     </comment>
@@ -2670,7 +2592,124 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003B000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Einstieg Turnplatz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Waldrand</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Klingenpfad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Weglos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gipfel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Überleitung MIL abwärts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Klinge</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Überleitung MIL aufwärts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -2683,7 +2722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003C000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -2696,7 +2735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003D000000}">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -2709,7 +2748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003E000000}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -2722,7 +2761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00003F000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000013000000}">
       <text>
         <r>
           <rPr>
@@ -2731,11 +2770,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ab Wintersbach (207)</t>
+          <t>Ohrenbach</t>
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000040000000}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2744,11 +2783,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Einstieg Pfad Wellig</t>
+          <t>Verwilderter Forstweg</t>
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000041000000}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2757,11 +2796,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alter Schulweg</t>
+          <t>Echter Trail</t>
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000042000000}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2770,11 +2809,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geishöhe Biergarten bis Turm (535)</t>
+          <t>Werdender Trail</t>
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000043000000}">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2783,11 +2822,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ab Kleinheubach 127 min</t>
+          <t>Weglos</t>
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000044000000}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2796,46 +2835,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Einstieg</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000045000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Waldautobahn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Holweg/Wege</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000047000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gipfel 455 max</t>
+          <t>Gipfel</t>
         </r>
       </text>
     </comment>
@@ -2844,7 +2844,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="373">
   <si>
     <t>Zeit</t>
   </si>
@@ -3960,6 +3960,9 @@
   </si>
   <si>
     <t>Halbmarathon</t>
+  </si>
+  <si>
+    <t>Heunesäulen * 5</t>
   </si>
 </sst>
 </file>
@@ -4733,7 +4736,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5082,9 +5085,6 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="21" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5114,20 +5114,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5153,32 +5168,17 @@
     <xf numFmtId="4" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5200,7 +5200,28 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="276">
+  <dxfs count="279">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="18"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -7472,7 +7493,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8910,113 +8931,113 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D1 D3:D65542">
-    <cfRule type="cellIs" dxfId="275" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="278" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="277" priority="5" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="276" priority="6" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F1048576">
-    <cfRule type="cellIs" dxfId="272" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="275" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="274" priority="8" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="273" priority="9" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B65542">
-    <cfRule type="cellIs" dxfId="269" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="272" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="271" priority="11" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="12" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E65542">
-    <cfRule type="cellIs" dxfId="266" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="268" priority="14" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="267" priority="15" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="263" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="265" priority="17" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="264" priority="18" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="260" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="262" priority="20" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="261" priority="21" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J10 H4:J5 J1 J3:J21 H1:I21 H22:J1048576">
-    <cfRule type="cellIs" dxfId="257" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="260" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="259" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="258" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="254" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="257" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="256" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -9114,16 +9135,16 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="230"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="231"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -9458,26 +9479,26 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="231"/>
-      <c r="J15" s="230" t="s">
+      <c r="B15" s="229"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="230"/>
+      <c r="J15" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="230"/>
-      <c r="L15" s="230"/>
-      <c r="M15" s="230"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="230"/>
-      <c r="Q15" s="231"/>
+      <c r="K15" s="229"/>
+      <c r="L15" s="229"/>
+      <c r="M15" s="229"/>
+      <c r="N15" s="229"/>
+      <c r="O15" s="229"/>
+      <c r="P15" s="229"/>
+      <c r="Q15" s="230"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
@@ -9787,42 +9808,42 @@
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="232" t="s">
+      <c r="A22" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
       <c r="H22" s="49">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="J22" s="230" t="s">
+      <c r="J22" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="230"/>
-      <c r="L22" s="230"/>
-      <c r="M22" s="230"/>
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+      <c r="M22" s="229"/>
       <c r="N22" s="140"/>
-      <c r="O22" s="230" t="s">
+      <c r="O22" s="229" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="230"/>
+      <c r="P22" s="229"/>
+      <c r="Q22" s="229"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="231"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="230"/>
       <c r="J23" s="17" t="s">
         <v>20</v>
       </c>
@@ -9956,16 +9977,16 @@
         <f>I10/A26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="230" t="s">
+      <c r="J26" s="229" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="230"/>
-      <c r="L26" s="230"/>
-      <c r="M26" s="230"/>
-      <c r="N26" s="230"/>
-      <c r="O26" s="230"/>
-      <c r="P26" s="230"/>
-      <c r="Q26" s="230"/>
+      <c r="K26" s="229"/>
+      <c r="L26" s="229"/>
+      <c r="M26" s="229"/>
+      <c r="N26" s="229"/>
+      <c r="O26" s="229"/>
+      <c r="P26" s="229"/>
+      <c r="Q26" s="229"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
@@ -10089,22 +10110,22 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="230"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="231"/>
-      <c r="J30" s="230" t="s">
+      <c r="B30" s="229"/>
+      <c r="C30" s="229"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="230"/>
+      <c r="J30" s="229" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="230"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
       <c r="N30" s="141"/>
     </row>
     <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10248,169 +10269,169 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G1:G2 H35:H65537 H4:H14 H16:H21 H24:H29 Q16:Q20 L24:M24">
-    <cfRule type="cellIs" dxfId="36" priority="67" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="67" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="68" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="68" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="69" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="69" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G13 G17:G20 G25:G28 P17:P20 K24">
-    <cfRule type="cellIs" dxfId="33" priority="70" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="70" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="71" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="71" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="72" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="72" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13 F17:F20 F25:F28">
-    <cfRule type="cellIs" dxfId="30" priority="73" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="73" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0694328703703704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="74" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="74" stopIfTrue="1" operator="between">
       <formula>0.0694444444444444</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="75" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="75" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A13 H22">
-    <cfRule type="cellIs" dxfId="27" priority="76" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="76" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="77" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="77" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00439814814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="78" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="78" stopIfTrue="1" operator="between">
       <formula>0.00440972222222222</formula>
       <formula>0.416655092592593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O20 J24">
-    <cfRule type="cellIs" dxfId="24" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="56" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="57" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="34" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="35" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:Q28">
-    <cfRule type="cellIs" dxfId="18" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="32" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:Q28">
-    <cfRule type="cellIs" dxfId="15" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="28" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="29" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="30" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M32">
-    <cfRule type="cellIs" dxfId="12" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="26" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.062152662037037</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="20" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0729165509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="21" stopIfTrue="1" operator="between">
       <formula>0.0729166666666667</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="6" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.187488425925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="between">
       <formula>0.1875</formula>
       <formula>"99:99:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>8.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="between">
       <formula>9</formula>
       <formula>10.9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.9999</formula>
     </cfRule>
@@ -10431,102 +10452,96 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="172" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="193">
+      <c r="B1" s="192">
         <v>0</v>
       </c>
-      <c r="C1" s="194">
+      <c r="C1" s="193">
         <v>1</v>
       </c>
-      <c r="D1" s="194">
+      <c r="D1" s="193">
         <v>2</v>
       </c>
-      <c r="E1" s="194">
+      <c r="E1" s="193">
         <v>3</v>
       </c>
-      <c r="F1" s="194">
+      <c r="F1" s="193">
         <v>4</v>
       </c>
-      <c r="G1" s="194">
+      <c r="G1" s="193">
         <v>5</v>
       </c>
-      <c r="H1" s="195">
+      <c r="H1" s="194">
         <v>6</v>
       </c>
-      <c r="I1" s="192" t="s">
+      <c r="I1" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="233" t="s">
+      <c r="M1" s="232" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="234"/>
+      <c r="N1" s="233"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="189" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="B2" s="181">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C2" s="182">
-        <v>120</v>
-      </c>
-      <c r="D2" s="182">
-        <v>80</v>
-      </c>
-      <c r="E2" s="182">
-        <v>15</v>
-      </c>
-      <c r="F2" s="182">
-        <v>17</v>
-      </c>
-      <c r="G2" s="182">
-        <v>28</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="182"/>
       <c r="I2" s="186">
         <f>SUM(B2:H2)</f>
-        <v>312</v>
-      </c>
-      <c r="M2" s="196" t="s">
+        <v>520</v>
+      </c>
+      <c r="M2" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="197" t="s">
+      <c r="N2" s="196" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="190" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="B3" s="174">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="173">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D3" s="173">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="E3" s="173">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
       <c r="H3" s="173"/>
       <c r="I3" s="183">
-        <f t="shared" ref="I3:I31" si="0">SUM(B3:H3)</f>
-        <v>224</v>
+        <f>SUM(B3:H3)</f>
+        <v>381</v>
       </c>
       <c r="M3" s="176"/>
       <c r="N3" s="178">
@@ -10535,28 +10550,24 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="190" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="B4" s="174">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C4" s="173">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="D4" s="173">
-        <v>131</v>
-      </c>
-      <c r="E4" s="173">
-        <v>28</v>
-      </c>
-      <c r="F4" s="173">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="173"/>
       <c r="H4" s="173"/>
       <c r="I4" s="183">
-        <f t="shared" si="0"/>
-        <v>247</v>
+        <f>SUM(B4:H4)</f>
+        <v>380</v>
       </c>
       <c r="M4" s="176"/>
       <c r="N4" s="178">
@@ -10565,54 +10576,54 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="190" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="B5" s="174">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C5" s="173">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D5" s="173">
-        <v>33</v>
-      </c>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
+        <v>70</v>
+      </c>
+      <c r="E5" s="173">
+        <v>73</v>
+      </c>
+      <c r="F5" s="173">
+        <v>60</v>
+      </c>
       <c r="G5" s="173"/>
       <c r="H5" s="173"/>
       <c r="I5" s="183">
-        <f t="shared" si="0"/>
-        <v>310</v>
+        <f>SUM(B5:H5)</f>
+        <v>335</v>
       </c>
       <c r="M5" s="176"/>
       <c r="N5" s="178"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="190" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="B6" s="174">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="173">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" s="173">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="E6" s="173">
-        <v>36</v>
-      </c>
-      <c r="F6" s="173">
-        <v>7</v>
-      </c>
-      <c r="G6" s="173">
-        <v>35</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
       <c r="H6" s="173"/>
       <c r="I6" s="183">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <f>SUM(B6:H6)</f>
+        <v>327</v>
       </c>
       <c r="M6" s="176"/>
       <c r="N6" s="178"/>
@@ -10641,7 +10652,7 @@
       </c>
       <c r="H7" s="173"/>
       <c r="I7" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:H7)</f>
         <v>323</v>
       </c>
       <c r="M7" s="176"/>
@@ -10649,114 +10660,114 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="190" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B8" s="174">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C8" s="173">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D8" s="173">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E8" s="173">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F8" s="173">
-        <v>60</v>
-      </c>
-      <c r="G8" s="173"/>
+        <v>17</v>
+      </c>
+      <c r="G8" s="173">
+        <v>28</v>
+      </c>
       <c r="H8" s="173"/>
       <c r="I8" s="183">
-        <f t="shared" si="0"/>
-        <v>335</v>
+        <f>SUM(B8:H8)</f>
+        <v>312</v>
       </c>
       <c r="M8" s="176"/>
       <c r="N8" s="178"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="190" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="B9" s="174">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C9" s="173">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D9" s="173">
-        <v>22</v>
-      </c>
-      <c r="E9" s="173">
-        <v>75</v>
-      </c>
-      <c r="F9" s="173">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="173"/>
       <c r="H9" s="173"/>
       <c r="I9" s="183">
-        <f t="shared" si="0"/>
-        <v>285</v>
+        <f>SUM(B9:H9)</f>
+        <v>310</v>
       </c>
       <c r="M9" s="176"/>
       <c r="N9" s="178"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="190" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B10" s="174">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C10" s="173">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D10" s="173">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="E10" s="173">
-        <v>35</v>
-      </c>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="173">
+        <v>31</v>
+      </c>
+      <c r="G10" s="173">
+        <v>25</v>
+      </c>
+      <c r="H10" s="173">
+        <v>7</v>
+      </c>
       <c r="I10" s="183">
-        <f t="shared" si="0"/>
-        <v>381</v>
+        <f>SUM(B10:H10)</f>
+        <v>305</v>
       </c>
       <c r="M10" s="176"/>
       <c r="N10" s="178"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="190" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B11" s="174">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="C11" s="173">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D11" s="173">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E11" s="173">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F11" s="173">
-        <v>31</v>
-      </c>
-      <c r="G11" s="173">
-        <v>25</v>
-      </c>
-      <c r="H11" s="173">
-        <v>7</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
       <c r="I11" s="183">
-        <f t="shared" si="0"/>
-        <v>305</v>
+        <f>SUM(B11:H11)</f>
+        <v>285</v>
       </c>
       <c r="M11" s="176"/>
       <c r="N11" s="178"/>
@@ -10785,7 +10796,7 @@
       </c>
       <c r="H12" s="173"/>
       <c r="I12" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:H12)</f>
         <v>282</v>
       </c>
       <c r="M12" s="176"/>
@@ -10793,90 +10804,108 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="190" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B13" s="174">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="173">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D13" s="173">
-        <v>64</v>
-      </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
+        <v>131</v>
+      </c>
+      <c r="E13" s="173">
+        <v>28</v>
+      </c>
+      <c r="F13" s="173">
+        <v>15</v>
+      </c>
       <c r="G13" s="173"/>
       <c r="H13" s="173"/>
       <c r="I13" s="183">
-        <f t="shared" si="0"/>
-        <v>173</v>
+        <f>SUM(B13:H13)</f>
+        <v>247</v>
       </c>
       <c r="M13" s="176"/>
       <c r="N13" s="178"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="190" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="B14" s="174">
+        <v>5</v>
+      </c>
+      <c r="C14" s="173">
+        <v>75</v>
+      </c>
+      <c r="D14" s="173">
         <v>120</v>
       </c>
-      <c r="C14" s="173">
-        <v>210</v>
-      </c>
-      <c r="D14" s="173">
-        <v>50</v>
-      </c>
-      <c r="E14" s="173"/>
+      <c r="E14" s="173">
+        <v>24</v>
+      </c>
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
       <c r="H14" s="173"/>
       <c r="I14" s="183">
-        <f t="shared" si="0"/>
-        <v>380</v>
+        <f>SUM(B14:H14)</f>
+        <v>224</v>
       </c>
       <c r="M14" s="176"/>
       <c r="N14" s="178"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B15" s="174">
         <v>34</v>
       </c>
       <c r="C15" s="173">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D15" s="173">
-        <v>190</v>
-      </c>
-      <c r="E15" s="173">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E15" s="173"/>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
       <c r="H15" s="173"/>
       <c r="I15" s="183">
-        <f t="shared" si="0"/>
-        <v>327</v>
+        <f>SUM(B15:H15)</f>
+        <v>173</v>
       </c>
       <c r="M15" s="176"/>
       <c r="N15" s="178"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="190"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
+      <c r="A16" s="190" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="174">
+        <v>17</v>
+      </c>
+      <c r="C16" s="173">
+        <v>30</v>
+      </c>
+      <c r="D16" s="173">
+        <v>40</v>
+      </c>
+      <c r="E16" s="173">
+        <v>36</v>
+      </c>
+      <c r="F16" s="173">
+        <v>7</v>
+      </c>
+      <c r="G16" s="173">
+        <v>35</v>
+      </c>
       <c r="H16" s="173"/>
       <c r="I16" s="183">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B16:H16)</f>
+        <v>165</v>
       </c>
       <c r="M16" s="176"/>
       <c r="N16" s="178"/>
@@ -10891,7 +10920,7 @@
       <c r="G17" s="173"/>
       <c r="H17" s="173"/>
       <c r="I17" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:H17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="177"/>
@@ -10907,7 +10936,7 @@
       <c r="G18" s="173"/>
       <c r="H18" s="173"/>
       <c r="I18" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:H18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="180">
@@ -10929,7 +10958,7 @@
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
       <c r="I19" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:H19)</f>
         <v>0</v>
       </c>
     </row>
@@ -10943,7 +10972,7 @@
       <c r="G20" s="173"/>
       <c r="H20" s="173"/>
       <c r="I20" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:H20)</f>
         <v>0</v>
       </c>
     </row>
@@ -10957,7 +10986,7 @@
       <c r="G21" s="173"/>
       <c r="H21" s="173"/>
       <c r="I21" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:H21)</f>
         <v>0</v>
       </c>
     </row>
@@ -10971,7 +11000,7 @@
       <c r="G22" s="173"/>
       <c r="H22" s="173"/>
       <c r="I22" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
@@ -10985,7 +11014,7 @@
       <c r="G23" s="173"/>
       <c r="H23" s="173"/>
       <c r="I23" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:H23)</f>
         <v>0</v>
       </c>
     </row>
@@ -10999,7 +11028,7 @@
       <c r="G24" s="173"/>
       <c r="H24" s="173"/>
       <c r="I24" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:H24)</f>
         <v>0</v>
       </c>
     </row>
@@ -11013,7 +11042,7 @@
       <c r="G25" s="173"/>
       <c r="H25" s="173"/>
       <c r="I25" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:H25)</f>
         <v>0</v>
       </c>
     </row>
@@ -11027,7 +11056,7 @@
       <c r="G26" s="173"/>
       <c r="H26" s="173"/>
       <c r="I26" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:H26)</f>
         <v>0</v>
       </c>
     </row>
@@ -11041,7 +11070,7 @@
       <c r="G27" s="173"/>
       <c r="H27" s="173"/>
       <c r="I27" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:H27)</f>
         <v>0</v>
       </c>
     </row>
@@ -11055,7 +11084,7 @@
       <c r="G28" s="173"/>
       <c r="H28" s="173"/>
       <c r="I28" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:H28)</f>
         <v>0</v>
       </c>
     </row>
@@ -11069,7 +11098,7 @@
       <c r="G29" s="173"/>
       <c r="H29" s="173"/>
       <c r="I29" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:H29)</f>
         <v>0</v>
       </c>
     </row>
@@ -11083,7 +11112,7 @@
       <c r="G30" s="173"/>
       <c r="H30" s="173"/>
       <c r="I30" s="183">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:H30)</f>
         <v>0</v>
       </c>
     </row>
@@ -11097,17 +11126,34 @@
       <c r="G31" s="175"/>
       <c r="H31" s="175"/>
       <c r="I31" s="187">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:H31)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+    <sortCondition descending="1" ref="I2:I31"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>0.0416550925925926</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.0416666666666667</formula>
+      <formula>0.0833217592592593</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="between">
+      <formula>0.0833333333333333</formula>
+      <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11120,7 +11166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -11215,11 +11261,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4" s="27">
-        <f>K4/2</f>
+        <f t="shared" ref="C4:C31" si="0">K4/2</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="31">
-        <f>K4</f>
+        <f t="shared" ref="D4:D31" si="1">K4</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E4" s="25">
@@ -11227,27 +11273,27 @@
         <v>21.0975</v>
       </c>
       <c r="F4" s="29">
-        <f>J4</f>
+        <f t="shared" ref="F4:F31" si="2">J4</f>
         <v>10.54875</v>
       </c>
       <c r="G4" s="24">
-        <f>B4/E4</f>
+        <f t="shared" ref="G4:G31" si="3">B4/E4</f>
         <v>3.9499150768258478E-3</v>
       </c>
       <c r="H4" s="24">
-        <f>G4*3</f>
+        <f t="shared" ref="H4:H31" si="4">G4*3</f>
         <v>1.1849745230477543E-2</v>
       </c>
       <c r="I4" s="24">
-        <f>G4*10</f>
+        <f t="shared" ref="I4:I31" si="5">G4*10</f>
         <v>3.9499150768258481E-2</v>
       </c>
       <c r="J4" s="60">
-        <f>$B$3/B4*E4</f>
+        <f t="shared" ref="J4:J31" si="6">$B$3/B4*E4</f>
         <v>10.54875</v>
       </c>
       <c r="K4" s="55">
-        <f>$E$2/E4*B4</f>
+        <f t="shared" ref="K4:K31" si="7">$E$2/E4*B4</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="L4"/>
@@ -11261,38 +11307,38 @@
         <v>7.946759259259259E-2</v>
       </c>
       <c r="C5" s="27">
-        <f>K5/2</f>
+        <f t="shared" si="0"/>
         <v>0.10478547092013889</v>
       </c>
       <c r="D5" s="27">
-        <f>K5</f>
+        <f t="shared" si="1"/>
         <v>0.20957094184027777</v>
       </c>
       <c r="E5" s="29">
         <v>16</v>
       </c>
       <c r="F5" s="25">
-        <f>J5</f>
+        <f t="shared" si="2"/>
         <v>8.3891639965045144</v>
       </c>
       <c r="G5" s="24">
-        <f>B5/E5</f>
+        <f t="shared" si="3"/>
         <v>4.9667245370370369E-3</v>
       </c>
       <c r="H5" s="24">
-        <f>G5*3</f>
+        <f t="shared" si="4"/>
         <v>1.4900173611111111E-2</v>
       </c>
       <c r="I5" s="24">
-        <f>G5*10</f>
+        <f t="shared" si="5"/>
         <v>4.9667245370370372E-2</v>
       </c>
       <c r="J5" s="60">
-        <f>$B$3/B5*E5</f>
+        <f t="shared" si="6"/>
         <v>8.3891639965045144</v>
       </c>
       <c r="K5" s="55">
-        <f>$E$2/E5*B5</f>
+        <f t="shared" si="7"/>
         <v>0.20957094184027777</v>
       </c>
       <c r="L5"/>
@@ -11306,38 +11352,38 @@
         <v>6.8657407407407403E-2</v>
       </c>
       <c r="C6" s="27">
-        <f>K6/2</f>
+        <f t="shared" si="0"/>
         <v>0.10650732741013071</v>
       </c>
       <c r="D6" s="31">
-        <f>K6</f>
+        <f t="shared" si="1"/>
         <v>0.21301465482026141</v>
       </c>
       <c r="E6" s="25">
         <v>13.6</v>
       </c>
       <c r="F6" s="29">
-        <f>J6</f>
+        <f t="shared" si="2"/>
         <v>8.2535401213755897</v>
       </c>
       <c r="G6" s="24">
-        <f>B6/E6</f>
+        <f t="shared" si="3"/>
         <v>5.048338779956427E-3</v>
       </c>
       <c r="H6" s="24">
-        <f>G6*3</f>
+        <f t="shared" si="4"/>
         <v>1.5145016339869281E-2</v>
       </c>
       <c r="I6" s="24">
-        <f>G6*10</f>
+        <f t="shared" si="5"/>
         <v>5.0483387799564267E-2</v>
       </c>
       <c r="J6" s="60">
-        <f>$B$3/B6*E6</f>
+        <f t="shared" si="6"/>
         <v>8.2535401213755897</v>
       </c>
       <c r="K6" s="55">
-        <f>$E$2/E6*B6</f>
+        <f t="shared" si="7"/>
         <v>0.21301465482026141</v>
       </c>
       <c r="L6"/>
@@ -11351,38 +11397,38 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C7" s="27">
-        <f>K7/2</f>
+        <f t="shared" si="0"/>
         <v>9.76736111111111E-2</v>
       </c>
       <c r="D7" s="31">
-        <f>K7</f>
+        <f t="shared" si="1"/>
         <v>0.1953472222222222</v>
       </c>
       <c r="E7" s="25">
         <v>12</v>
       </c>
       <c r="F7" s="29">
-        <f>J7</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G7" s="24">
-        <f>B7/E7</f>
+        <f t="shared" si="3"/>
         <v>4.6296296296296294E-3</v>
       </c>
       <c r="H7" s="24">
-        <f>G7*3</f>
+        <f t="shared" si="4"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="I7" s="24">
-        <f>G7*10</f>
+        <f t="shared" si="5"/>
         <v>4.6296296296296294E-2</v>
       </c>
       <c r="J7" s="60">
-        <f>$B$3/B7*E7</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K7" s="55">
-        <f>$E$2/E7*B7</f>
+        <f t="shared" si="7"/>
         <v>0.1953472222222222</v>
       </c>
       <c r="L7"/>
@@ -11396,38 +11442,38 @@
         <v>6.324074074074075E-2</v>
       </c>
       <c r="C8" s="27">
-        <f>K8/2</f>
+        <f t="shared" si="0"/>
         <v>0.11703697612085773</v>
       </c>
       <c r="D8" s="27">
-        <f>K8</f>
+        <f t="shared" si="1"/>
         <v>0.23407395224171546</v>
       </c>
       <c r="E8" s="25">
         <v>11.4</v>
       </c>
       <c r="F8" s="33">
-        <f>J8</f>
+        <f t="shared" si="2"/>
         <v>7.5109809663250351</v>
       </c>
       <c r="G8" s="24">
-        <f>B8/E8</f>
+        <f t="shared" si="3"/>
         <v>5.547433398310592E-3</v>
       </c>
       <c r="H8" s="24">
-        <f>G8*3</f>
+        <f t="shared" si="4"/>
         <v>1.6642300194931778E-2</v>
       </c>
       <c r="I8" s="24">
-        <f>G8*10</f>
+        <f t="shared" si="5"/>
         <v>5.5474333983105917E-2</v>
       </c>
       <c r="J8" s="60">
-        <f>$B$3/B8*E8</f>
+        <f t="shared" si="6"/>
         <v>7.5109809663250351</v>
       </c>
       <c r="K8" s="55">
-        <f>$E$2/E8*B8</f>
+        <f t="shared" si="7"/>
         <v>0.23407395224171546</v>
       </c>
       <c r="L8"/>
@@ -11441,38 +11487,38 @@
         <v>3.6006944444444446E-2</v>
       </c>
       <c r="C9" s="27">
-        <f>K9/2</f>
+        <f t="shared" si="0"/>
         <v>7.5965651041666665E-2</v>
       </c>
       <c r="D9" s="31">
-        <f>K9</f>
+        <f t="shared" si="1"/>
         <v>0.15193130208333333</v>
       </c>
       <c r="E9" s="25">
         <v>10</v>
       </c>
       <c r="F9" s="29">
-        <f>J9</f>
+        <f t="shared" si="2"/>
         <v>11.571841851494696</v>
       </c>
       <c r="G9" s="24">
-        <f>B9/E9</f>
+        <f t="shared" si="3"/>
         <v>3.6006944444444446E-3</v>
       </c>
       <c r="H9" s="24">
-        <f>G9*3</f>
+        <f t="shared" si="4"/>
         <v>1.0802083333333334E-2</v>
       </c>
       <c r="I9" s="24">
-        <f>G9*10</f>
+        <f t="shared" si="5"/>
         <v>3.6006944444444446E-2</v>
       </c>
       <c r="J9" s="60">
-        <f>$B$3/B9*E9</f>
+        <f t="shared" si="6"/>
         <v>11.571841851494696</v>
       </c>
       <c r="K9" s="55">
-        <f>$E$2/E9*B9</f>
+        <f t="shared" si="7"/>
         <v>0.15193130208333333</v>
       </c>
       <c r="L9"/>
@@ -11486,38 +11532,38 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="C10" s="27">
-        <f>K10/2</f>
+        <f t="shared" si="0"/>
         <v>9.3864340277777777E-2</v>
       </c>
       <c r="D10" s="27">
-        <f>K10</f>
+        <f t="shared" si="1"/>
         <v>0.18772868055555555</v>
       </c>
       <c r="E10" s="25">
         <v>10</v>
       </c>
       <c r="F10" s="25">
-        <f>J10</f>
+        <f t="shared" si="2"/>
         <v>9.3652445369406863</v>
       </c>
       <c r="G10" s="24">
-        <f>B10/E10</f>
+        <f t="shared" si="3"/>
         <v>4.449074074074074E-3</v>
       </c>
       <c r="H10" s="24">
-        <f>G10*3</f>
+        <f t="shared" si="4"/>
         <v>1.3347222222222222E-2</v>
       </c>
       <c r="I10" s="24">
-        <f>G10*10</f>
+        <f t="shared" si="5"/>
         <v>4.449074074074074E-2</v>
       </c>
       <c r="J10" s="60">
-        <f>$B$3/B10*E10</f>
+        <f t="shared" si="6"/>
         <v>9.3652445369406863</v>
       </c>
       <c r="K10" s="55">
-        <f>$E$2/E10*B10</f>
+        <f t="shared" si="7"/>
         <v>0.18772868055555555</v>
       </c>
       <c r="L10"/>
@@ -11531,38 +11577,38 @@
         <v>3.4050925925925922E-2</v>
       </c>
       <c r="C11" s="27">
-        <f>K11/2</f>
+        <f t="shared" si="0"/>
         <v>7.9821045524691353E-2</v>
       </c>
       <c r="D11" s="31">
-        <f>K11</f>
+        <f t="shared" si="1"/>
         <v>0.15964209104938271</v>
       </c>
       <c r="E11" s="25">
         <v>9</v>
       </c>
       <c r="F11" s="29">
-        <f>J11</f>
+        <f t="shared" si="2"/>
         <v>11.012916383412646</v>
       </c>
       <c r="G11" s="24">
-        <f>B11/E11</f>
+        <f t="shared" si="3"/>
         <v>3.783436213991769E-3</v>
       </c>
       <c r="H11" s="24">
-        <f>G11*3</f>
+        <f t="shared" si="4"/>
         <v>1.1350308641975306E-2</v>
       </c>
       <c r="I11" s="24">
-        <f>G11*10</f>
+        <f t="shared" si="5"/>
         <v>3.7834362139917692E-2</v>
       </c>
       <c r="J11" s="60">
-        <f>$B$3/B11*E11</f>
+        <f t="shared" si="6"/>
         <v>11.012916383412646</v>
       </c>
       <c r="K11" s="55">
-        <f>$E$2/E11*B11</f>
+        <f t="shared" si="7"/>
         <v>0.15964209104938271</v>
       </c>
       <c r="L11"/>
@@ -11576,38 +11622,38 @@
         <v>3.1527777777777773E-2</v>
       </c>
       <c r="C12" s="27">
-        <f>K12/2</f>
+        <f t="shared" si="0"/>
         <v>8.3144661458333324E-2</v>
       </c>
       <c r="D12" s="31">
-        <f>K12</f>
+        <f t="shared" si="1"/>
         <v>0.16628932291666665</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
       </c>
       <c r="F12" s="33">
-        <f>J12</f>
+        <f t="shared" si="2"/>
         <v>10.572687224669604</v>
       </c>
       <c r="G12" s="24">
-        <f>B12/E12</f>
+        <f t="shared" si="3"/>
         <v>3.9409722222222216E-3</v>
       </c>
       <c r="H12" s="24">
-        <f>G12*3</f>
+        <f t="shared" si="4"/>
         <v>1.1822916666666666E-2</v>
       </c>
       <c r="I12" s="24">
-        <f>G12*10</f>
+        <f t="shared" si="5"/>
         <v>3.9409722222222214E-2</v>
       </c>
       <c r="J12" s="60">
-        <f>$B$3/B12*E12</f>
+        <f t="shared" si="6"/>
         <v>10.572687224669604</v>
       </c>
       <c r="K12" s="55">
-        <f>$E$2/E12*B12</f>
+        <f t="shared" si="7"/>
         <v>0.16628932291666665</v>
       </c>
       <c r="L12"/>
@@ -11621,38 +11667,38 @@
         <v>4.1099537037037039E-2</v>
       </c>
       <c r="C13" s="27">
-        <f>K13/2</f>
+        <f t="shared" si="0"/>
         <v>0.11088203102799092</v>
       </c>
       <c r="D13" s="27">
-        <f>K13</f>
+        <f t="shared" si="1"/>
         <v>0.22176406205598184</v>
       </c>
       <c r="E13" s="29">
         <v>7.82</v>
       </c>
       <c r="F13" s="25">
-        <f>J13</f>
+        <f t="shared" si="2"/>
         <v>7.9279076316530546</v>
       </c>
       <c r="G13" s="24">
-        <f>B13/E13</f>
+        <f t="shared" si="3"/>
         <v>5.2556952732783933E-3</v>
       </c>
       <c r="H13" s="24">
-        <f>G13*3</f>
+        <f t="shared" si="4"/>
         <v>1.5767085819835179E-2</v>
       </c>
       <c r="I13" s="24">
-        <f>G13*10</f>
+        <f t="shared" si="5"/>
         <v>5.2556952732783935E-2</v>
       </c>
       <c r="J13" s="60">
-        <f>$B$3/B13*E13</f>
+        <f t="shared" si="6"/>
         <v>7.9279076316530546</v>
       </c>
       <c r="K13" s="55">
-        <f>$E$2/E13*B13</f>
+        <f t="shared" si="7"/>
         <v>0.22176406205598184</v>
       </c>
       <c r="L13"/>
@@ -11666,38 +11712,38 @@
         <v>4.4791666666666667E-2</v>
       </c>
       <c r="C14" s="27">
-        <f>K14/2</f>
+        <f t="shared" si="0"/>
         <v>0.12115284455128204</v>
       </c>
       <c r="D14" s="27">
-        <f>K14</f>
+        <f t="shared" si="1"/>
         <v>0.24230568910256409</v>
       </c>
       <c r="E14" s="29">
         <v>7.8</v>
       </c>
       <c r="F14" s="25">
-        <f>J14</f>
+        <f t="shared" si="2"/>
         <v>7.2558139534883717</v>
       </c>
       <c r="G14" s="24">
-        <f>B14/E14</f>
+        <f t="shared" si="3"/>
         <v>5.7425213675213679E-3</v>
       </c>
       <c r="H14" s="24">
-        <f>G14*3</f>
+        <f t="shared" si="4"/>
         <v>1.7227564102564104E-2</v>
       </c>
       <c r="I14" s="24">
-        <f>G14*10</f>
+        <f t="shared" si="5"/>
         <v>5.7425213675213679E-2</v>
       </c>
       <c r="J14" s="60">
-        <f>$B$3/B14*E14</f>
+        <f t="shared" si="6"/>
         <v>7.2558139534883717</v>
       </c>
       <c r="K14" s="55">
-        <f>$E$2/E14*B14</f>
+        <f t="shared" si="7"/>
         <v>0.24230568910256409</v>
       </c>
       <c r="L14"/>
@@ -11711,38 +11757,38 @@
         <v>2.7858796296296298E-2</v>
       </c>
       <c r="C15" s="27">
-        <f>K15/2</f>
+        <f t="shared" si="0"/>
         <v>7.8366793981481497E-2</v>
       </c>
       <c r="D15" s="31">
-        <f>K15</f>
+        <f t="shared" si="1"/>
         <v>0.15673358796296299</v>
       </c>
       <c r="E15" s="29">
         <v>7.5</v>
       </c>
       <c r="F15" s="29">
-        <f>J15</f>
+        <f t="shared" si="2"/>
         <v>11.217282924802658</v>
       </c>
       <c r="G15" s="24">
-        <f>B15/E15</f>
+        <f t="shared" si="3"/>
         <v>3.7145061728395064E-3</v>
       </c>
       <c r="H15" s="24">
-        <f>G15*3</f>
+        <f t="shared" si="4"/>
         <v>1.114351851851852E-2</v>
       </c>
       <c r="I15" s="24">
-        <f>G15*10</f>
+        <f t="shared" si="5"/>
         <v>3.7145061728395067E-2</v>
       </c>
       <c r="J15" s="60">
-        <f>$B$3/B15*E15</f>
+        <f t="shared" si="6"/>
         <v>11.217282924802658</v>
       </c>
       <c r="K15" s="55">
-        <f>$E$2/E15*B15</f>
+        <f t="shared" si="7"/>
         <v>0.15673358796296299</v>
       </c>
       <c r="L15"/>
@@ -11756,38 +11802,38 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" s="27">
-        <f>K16/2</f>
+        <f t="shared" si="0"/>
         <v>9.8993524774774785E-2</v>
       </c>
       <c r="D16" s="27">
-        <f>K16</f>
+        <f t="shared" si="1"/>
         <v>0.19798704954954957</v>
       </c>
       <c r="E16" s="25">
         <v>7.4</v>
       </c>
       <c r="F16" s="33">
-        <f>J16</f>
+        <f t="shared" si="2"/>
         <v>8.8800000000000008</v>
       </c>
       <c r="G16" s="24">
-        <f>B16/E16</f>
+        <f t="shared" si="3"/>
         <v>4.6921921921921923E-3</v>
       </c>
       <c r="H16" s="24">
-        <f>G16*3</f>
+        <f t="shared" si="4"/>
         <v>1.4076576576576577E-2</v>
       </c>
       <c r="I16" s="24">
-        <f>G16*10</f>
+        <f t="shared" si="5"/>
         <v>4.6921921921921919E-2</v>
       </c>
       <c r="J16" s="60">
-        <f>$B$3/B16*E16</f>
+        <f t="shared" si="6"/>
         <v>8.8800000000000008</v>
       </c>
       <c r="K16" s="55">
-        <f>$E$2/E16*B16</f>
+        <f t="shared" si="7"/>
         <v>0.19798704954954957</v>
       </c>
       <c r="L16"/>
@@ -11801,38 +11847,38 @@
         <v>2.5706018518518517E-2</v>
       </c>
       <c r="C17" s="27">
-        <f>K17/2</f>
+        <f t="shared" si="0"/>
         <v>7.7476103670634913E-2</v>
       </c>
       <c r="D17" s="27">
-        <f>K17</f>
+        <f t="shared" si="1"/>
         <v>0.15495220734126983</v>
       </c>
       <c r="E17" s="25">
         <v>7</v>
       </c>
       <c r="F17" s="33">
-        <f>J17</f>
+        <f t="shared" si="2"/>
         <v>11.346240432237732</v>
       </c>
       <c r="G17" s="24">
-        <f>B17/E17</f>
+        <f t="shared" si="3"/>
         <v>3.6722883597883594E-3</v>
       </c>
       <c r="H17" s="24">
-        <f>G17*3</f>
+        <f t="shared" si="4"/>
         <v>1.1016865079365078E-2</v>
       </c>
       <c r="I17" s="24">
-        <f>G17*10</f>
+        <f t="shared" si="5"/>
         <v>3.6722883597883595E-2</v>
       </c>
       <c r="J17" s="60">
-        <f>$B$3/B17*E17</f>
+        <f t="shared" si="6"/>
         <v>11.346240432237732</v>
       </c>
       <c r="K17" s="55">
-        <f>$E$2/E17*B17</f>
+        <f t="shared" si="7"/>
         <v>0.15495220734126983</v>
       </c>
       <c r="L17"/>
@@ -11846,38 +11892,38 @@
         <v>3.7395833333333336E-2</v>
       </c>
       <c r="C18" s="27">
-        <f>K18/2</f>
+        <f t="shared" si="0"/>
         <v>0.11688275462962965</v>
       </c>
       <c r="D18" s="31">
-        <f>K18</f>
+        <f t="shared" si="1"/>
         <v>0.23376550925925929</v>
       </c>
       <c r="E18" s="25">
         <v>6.75</v>
       </c>
       <c r="F18" s="29">
-        <f>J18</f>
+        <f t="shared" si="2"/>
         <v>7.5208913649025062</v>
       </c>
       <c r="G18" s="24">
-        <f>B18/E18</f>
+        <f t="shared" si="3"/>
         <v>5.5401234567901241E-3</v>
       </c>
       <c r="H18" s="24">
-        <f>G18*3</f>
+        <f t="shared" si="4"/>
         <v>1.6620370370370372E-2</v>
       </c>
       <c r="I18" s="24">
-        <f>G18*10</f>
+        <f t="shared" si="5"/>
         <v>5.5401234567901241E-2</v>
       </c>
       <c r="J18" s="60">
-        <f>$B$3/B18*E18</f>
+        <f t="shared" si="6"/>
         <v>7.5208913649025062</v>
       </c>
       <c r="K18" s="55">
-        <f>$E$2/E18*B18</f>
+        <f t="shared" si="7"/>
         <v>0.23376550925925929</v>
       </c>
       <c r="L18"/>
@@ -11891,38 +11937,38 @@
         <v>2.2048611111111113E-2</v>
       </c>
       <c r="C19" s="27">
-        <f>K19/2</f>
+        <f t="shared" si="0"/>
         <v>7.6257470969945368E-2</v>
       </c>
       <c r="D19" s="31">
-        <f>K19</f>
+        <f t="shared" si="1"/>
         <v>0.15251494193989074</v>
       </c>
       <c r="E19" s="25">
         <v>6.1</v>
       </c>
       <c r="F19" s="29">
-        <f>J19</f>
+        <f t="shared" si="2"/>
         <v>11.527559055118108</v>
       </c>
       <c r="G19" s="24">
-        <f>B19/E19</f>
+        <f t="shared" si="3"/>
         <v>3.6145264116575595E-3</v>
       </c>
       <c r="H19" s="24">
-        <f>G19*3</f>
+        <f t="shared" si="4"/>
         <v>1.0843579234972679E-2</v>
       </c>
       <c r="I19" s="24">
-        <f>G19*10</f>
+        <f t="shared" si="5"/>
         <v>3.6145264116575593E-2</v>
       </c>
       <c r="J19" s="60">
-        <f>$B$3/B19*E19</f>
+        <f t="shared" si="6"/>
         <v>11.527559055118108</v>
       </c>
       <c r="K19" s="55">
-        <f>$E$2/E19*B19</f>
+        <f t="shared" si="7"/>
         <v>0.15251494193989074</v>
       </c>
       <c r="L19"/>
@@ -11936,38 +11982,38 @@
         <v>2.0370370370370369E-2</v>
       </c>
       <c r="C20" s="27">
-        <f>K20/2</f>
+        <f t="shared" si="0"/>
         <v>7.162731481481481E-2</v>
       </c>
       <c r="D20" s="27">
-        <f>K20</f>
+        <f t="shared" si="1"/>
         <v>0.14325462962962962</v>
       </c>
       <c r="E20" s="25">
         <v>6</v>
       </c>
       <c r="F20" s="33">
-        <f>J20</f>
+        <f t="shared" si="2"/>
         <v>12.272727272727273</v>
       </c>
       <c r="G20" s="24">
-        <f>B20/E20</f>
+        <f t="shared" si="3"/>
         <v>3.3950617283950613E-3</v>
       </c>
       <c r="H20" s="24">
-        <f>G20*3</f>
+        <f t="shared" si="4"/>
         <v>1.0185185185185184E-2</v>
       </c>
       <c r="I20" s="24">
-        <f>G20*10</f>
+        <f t="shared" si="5"/>
         <v>3.3950617283950615E-2</v>
       </c>
       <c r="J20" s="60">
-        <f>$B$3/B20*E20</f>
+        <f t="shared" si="6"/>
         <v>12.272727272727273</v>
       </c>
       <c r="K20" s="55">
-        <f>$E$2/E20*B20</f>
+        <f t="shared" si="7"/>
         <v>0.14325462962962962</v>
       </c>
       <c r="L20"/>
@@ -11981,38 +12027,38 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="C21" s="27">
-        <f>K21/2</f>
+        <f t="shared" si="0"/>
         <v>0.10309992283950617</v>
       </c>
       <c r="D21" s="27">
-        <f>K21</f>
+        <f t="shared" si="1"/>
         <v>0.20619984567901234</v>
       </c>
       <c r="E21" s="29">
         <v>5.4</v>
       </c>
       <c r="F21" s="25">
-        <f>J21</f>
+        <f t="shared" si="2"/>
         <v>8.526315789473685</v>
       </c>
       <c r="G21" s="24">
-        <f>B21/E21</f>
+        <f t="shared" si="3"/>
         <v>4.886831275720164E-3</v>
       </c>
       <c r="H21" s="24">
-        <f>G21*3</f>
+        <f t="shared" si="4"/>
         <v>1.4660493827160493E-2</v>
       </c>
       <c r="I21" s="24">
-        <f>G21*10</f>
+        <f t="shared" si="5"/>
         <v>4.8868312757201639E-2</v>
       </c>
       <c r="J21" s="60">
-        <f>$B$3/B21*E21</f>
+        <f t="shared" si="6"/>
         <v>8.526315789473685</v>
       </c>
       <c r="K21" s="55">
-        <f>$E$2/E21*B21</f>
+        <f t="shared" si="7"/>
         <v>0.20619984567901234</v>
       </c>
       <c r="L21"/>
@@ -12026,38 +12072,38 @@
         <v>1.6701388888888887E-2</v>
       </c>
       <c r="C22" s="27">
-        <f>K22/2</f>
+        <f t="shared" si="0"/>
         <v>7.0471510416666661E-2</v>
       </c>
       <c r="D22" s="34">
-        <f>K22</f>
+        <f t="shared" si="1"/>
         <v>0.14094302083333332</v>
       </c>
       <c r="E22" s="25">
         <v>5</v>
       </c>
       <c r="F22" s="30">
-        <f>J22</f>
+        <f t="shared" si="2"/>
         <v>12.474012474012476</v>
       </c>
       <c r="G22" s="24">
-        <f>B22/E22</f>
+        <f t="shared" si="3"/>
         <v>3.3402777777777775E-3</v>
       </c>
       <c r="H22" s="24">
-        <f>G22*3</f>
+        <f t="shared" si="4"/>
         <v>1.0020833333333333E-2</v>
       </c>
       <c r="I22" s="24">
-        <f>G22*10</f>
+        <f t="shared" si="5"/>
         <v>3.3402777777777774E-2</v>
       </c>
       <c r="J22" s="60">
-        <f>$B$3/B22*E22</f>
+        <f t="shared" si="6"/>
         <v>12.474012474012476</v>
       </c>
       <c r="K22" s="55">
-        <f>$E$2/E22*B22</f>
+        <f t="shared" si="7"/>
         <v>0.14094302083333332</v>
       </c>
       <c r="L22"/>
@@ -12071,38 +12117,38 @@
         <v>2.6909722222222224E-2</v>
       </c>
       <c r="C23" s="27">
-        <f>K23/2</f>
+        <f t="shared" si="0"/>
         <v>0.11827663845486112</v>
       </c>
       <c r="D23" s="27">
-        <f>K23</f>
+        <f t="shared" si="1"/>
         <v>0.23655327690972225</v>
       </c>
       <c r="E23" s="29">
         <v>4.8</v>
       </c>
       <c r="F23" s="25">
-        <f>J23</f>
+        <f t="shared" si="2"/>
         <v>7.4322580645161276</v>
       </c>
       <c r="G23" s="24">
-        <f>B23/E23</f>
+        <f t="shared" si="3"/>
         <v>5.6061921296296302E-3</v>
       </c>
       <c r="H23" s="24">
-        <f>G23*3</f>
+        <f t="shared" si="4"/>
         <v>1.6818576388888892E-2</v>
       </c>
       <c r="I23" s="24">
-        <f>G23*10</f>
+        <f t="shared" si="5"/>
         <v>5.6061921296296301E-2</v>
       </c>
       <c r="J23" s="60">
-        <f>$B$3/B23*E23</f>
+        <f t="shared" si="6"/>
         <v>7.4322580645161276</v>
       </c>
       <c r="K23" s="55">
-        <f>$E$2/E23*B23</f>
+        <f t="shared" si="7"/>
         <v>0.23655327690972225</v>
       </c>
       <c r="L23"/>
@@ -12116,38 +12162,38 @@
         <v>2.119212962962963E-2</v>
       </c>
       <c r="C24" s="27">
-        <f>K24/2</f>
+        <f t="shared" si="0"/>
         <v>0.10161385337752525</v>
       </c>
       <c r="D24" s="31">
-        <f>K24</f>
+        <f t="shared" si="1"/>
         <v>0.2032277067550505</v>
       </c>
       <c r="E24" s="25">
         <v>4.4000000000000004</v>
       </c>
       <c r="F24" s="29">
-        <f>J24</f>
+        <f t="shared" si="2"/>
         <v>8.6510103768432547</v>
       </c>
       <c r="G24" s="24">
-        <f>B24/E24</f>
+        <f t="shared" si="3"/>
         <v>4.8163930976430971E-3</v>
       </c>
       <c r="H24" s="24">
-        <f>G24*3</f>
+        <f t="shared" si="4"/>
         <v>1.4449179292929291E-2</v>
       </c>
       <c r="I24" s="24">
-        <f>G24*10</f>
+        <f t="shared" si="5"/>
         <v>4.8163930976430971E-2</v>
       </c>
       <c r="J24" s="60">
-        <f>$B$3/B24*E24</f>
+        <f t="shared" si="6"/>
         <v>8.6510103768432547</v>
       </c>
       <c r="K24" s="55">
-        <f>$E$2/E24*B24</f>
+        <f t="shared" si="7"/>
         <v>0.2032277067550505</v>
       </c>
       <c r="L24"/>
@@ -12161,38 +12207,38 @@
         <v>1.2881944444444446E-2</v>
       </c>
       <c r="C25" s="27">
-        <f>K25/2</f>
+        <f t="shared" si="0"/>
         <v>6.7944205729166679E-2</v>
       </c>
       <c r="D25" s="27">
-        <f>K25</f>
+        <f t="shared" si="1"/>
         <v>0.13588841145833336</v>
       </c>
       <c r="E25" s="25">
         <v>4</v>
       </c>
       <c r="F25" s="33">
-        <f>J25</f>
+        <f t="shared" si="2"/>
         <v>12.938005390835578</v>
       </c>
       <c r="G25" s="24">
-        <f>B25/E25</f>
+        <f t="shared" si="3"/>
         <v>3.2204861111111115E-3</v>
       </c>
       <c r="H25" s="24">
-        <f>G25*3</f>
+        <f t="shared" si="4"/>
         <v>9.6614583333333344E-3</v>
       </c>
       <c r="I25" s="24">
-        <f>G25*10</f>
+        <f t="shared" si="5"/>
         <v>3.2204861111111115E-2</v>
       </c>
       <c r="J25" s="60">
-        <f>$B$3/B25*E25</f>
+        <f t="shared" si="6"/>
         <v>12.938005390835578</v>
       </c>
       <c r="K25" s="55">
-        <f>$E$2/E25*B25</f>
+        <f t="shared" si="7"/>
         <v>0.13588841145833336</v>
       </c>
       <c r="L25"/>
@@ -12206,38 +12252,38 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C26" s="27">
-        <f>K26/2</f>
+        <f t="shared" si="0"/>
         <v>0.10346780838041432</v>
       </c>
       <c r="D26" s="31">
-        <f>K26</f>
+        <f t="shared" si="1"/>
         <v>0.20693561676082864</v>
       </c>
       <c r="E26" s="25">
         <v>3.54</v>
       </c>
       <c r="F26" s="29">
-        <f>J26</f>
+        <f t="shared" si="2"/>
         <v>8.4960000000000004</v>
       </c>
       <c r="G26" s="24">
-        <f>B26/E26</f>
+        <f t="shared" si="3"/>
         <v>4.9042686754551161E-3</v>
       </c>
       <c r="H26" s="24">
-        <f>G26*3</f>
+        <f t="shared" si="4"/>
         <v>1.4712806026365349E-2</v>
       </c>
       <c r="I26" s="24">
-        <f>G26*10</f>
+        <f t="shared" si="5"/>
         <v>4.904268675455116E-2</v>
       </c>
       <c r="J26" s="60">
-        <f>$B$3/B26*E26</f>
+        <f t="shared" si="6"/>
         <v>8.4960000000000004</v>
       </c>
       <c r="K26" s="55">
-        <f>$E$2/E26*B26</f>
+        <f t="shared" si="7"/>
         <v>0.20693561676082864</v>
       </c>
       <c r="L26"/>
@@ -12251,38 +12297,38 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C27" s="27">
-        <f>K27/2</f>
+        <f t="shared" si="0"/>
         <v>0.11302232142857142</v>
       </c>
       <c r="D27" s="27">
-        <f>K27</f>
+        <f t="shared" si="1"/>
         <v>0.22604464285714285</v>
       </c>
       <c r="E27" s="29">
         <v>3.5</v>
       </c>
       <c r="F27" s="25">
-        <f>J27</f>
+        <f t="shared" si="2"/>
         <v>7.7777777777777786</v>
       </c>
       <c r="G27" s="24">
-        <f>B27/E27</f>
+        <f t="shared" si="3"/>
         <v>5.3571428571428572E-3</v>
       </c>
       <c r="H27" s="24">
-        <f>G27*3</f>
+        <f t="shared" si="4"/>
         <v>1.607142857142857E-2</v>
       </c>
       <c r="I27" s="24">
-        <f>G27*10</f>
+        <f t="shared" si="5"/>
         <v>5.3571428571428575E-2</v>
       </c>
       <c r="J27" s="60">
-        <f>$B$3/B27*E27</f>
+        <f t="shared" si="6"/>
         <v>7.7777777777777786</v>
       </c>
       <c r="K27" s="55">
-        <f>$E$2/E27*B27</f>
+        <f t="shared" si="7"/>
         <v>0.22604464285714285</v>
       </c>
       <c r="L27"/>
@@ -12296,38 +12342,38 @@
         <v>1.8622685185185183E-2</v>
       </c>
       <c r="C28" s="27">
-        <f>K28/2</f>
+        <f t="shared" si="0"/>
         <v>0.11555650020424835</v>
       </c>
       <c r="D28" s="27">
-        <f>K28</f>
+        <f t="shared" si="1"/>
         <v>0.23111300040849669</v>
       </c>
       <c r="E28" s="29">
         <v>3.4</v>
       </c>
       <c r="F28" s="25">
-        <f>J28</f>
+        <f t="shared" si="2"/>
         <v>7.6072094468614049</v>
       </c>
       <c r="G28" s="24">
-        <f>B28/E28</f>
+        <f t="shared" si="3"/>
         <v>5.4772603485838773E-3</v>
       </c>
       <c r="H28" s="24">
-        <f>G28*3</f>
+        <f t="shared" si="4"/>
         <v>1.6431781045751631E-2</v>
       </c>
       <c r="I28" s="24">
-        <f>G28*10</f>
+        <f t="shared" si="5"/>
         <v>5.4772603485838775E-2</v>
       </c>
       <c r="J28" s="60">
-        <f>$B$3/B28*E28</f>
+        <f t="shared" si="6"/>
         <v>7.6072094468614049</v>
       </c>
       <c r="K28" s="55">
-        <f>$E$2/E28*B28</f>
+        <f t="shared" si="7"/>
         <v>0.23111300040849669</v>
       </c>
       <c r="L28"/>
@@ -12341,38 +12387,38 @@
         <v>9.1782407407407403E-3</v>
       </c>
       <c r="C29" s="27">
-        <f>K29/2</f>
+        <f t="shared" si="0"/>
         <v>6.2463849686379927E-2</v>
       </c>
       <c r="D29" s="31">
-        <f>K29</f>
+        <f t="shared" si="1"/>
         <v>0.12492769937275985</v>
       </c>
       <c r="E29" s="25">
         <v>3.1</v>
       </c>
       <c r="F29" s="29">
-        <f>J29</f>
+        <f t="shared" si="2"/>
         <v>14.07313997477932</v>
       </c>
       <c r="G29" s="24">
-        <f>B29/E29</f>
+        <f t="shared" si="3"/>
         <v>2.9607228195937872E-3</v>
       </c>
       <c r="H29" s="24">
-        <f>G29*3</f>
+        <f t="shared" si="4"/>
         <v>8.8821684587813612E-3</v>
       </c>
       <c r="I29" s="24">
-        <f>G29*10</f>
+        <f t="shared" si="5"/>
         <v>2.9607228195937873E-2</v>
       </c>
       <c r="J29" s="60">
-        <f>$B$3/B29*E29</f>
+        <f t="shared" si="6"/>
         <v>14.07313997477932</v>
       </c>
       <c r="K29" s="55">
-        <f>$E$2/E29*B29</f>
+        <f t="shared" si="7"/>
         <v>0.12492769937275985</v>
       </c>
       <c r="L29"/>
@@ -12386,38 +12432,38 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="C30" s="27">
-        <f>K30/2</f>
+        <f t="shared" si="0"/>
         <v>0.10870127688172045</v>
       </c>
       <c r="D30" s="27">
-        <f>K30</f>
+        <f t="shared" si="1"/>
         <v>0.21740255376344089</v>
       </c>
       <c r="E30" s="29">
         <v>3.1</v>
       </c>
       <c r="F30" s="25">
-        <f>J30</f>
+        <f t="shared" si="2"/>
         <v>8.086956521739129</v>
       </c>
       <c r="G30" s="24">
-        <f>B30/E30</f>
+        <f t="shared" si="3"/>
         <v>5.1523297491039436E-3</v>
       </c>
       <c r="H30" s="24">
-        <f>G30*3</f>
+        <f t="shared" si="4"/>
         <v>1.5456989247311832E-2</v>
       </c>
       <c r="I30" s="24">
-        <f>G30*10</f>
+        <f t="shared" si="5"/>
         <v>5.1523297491039434E-2</v>
       </c>
       <c r="J30" s="60">
-        <f>$B$3/B30*E30</f>
+        <f t="shared" si="6"/>
         <v>8.086956521739129</v>
       </c>
       <c r="K30" s="55">
-        <f>$E$2/E30*B30</f>
+        <f t="shared" si="7"/>
         <v>0.21740255376344089</v>
       </c>
       <c r="L30"/>
@@ -12431,38 +12477,38 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C31" s="27">
-        <f>K31/2</f>
+        <f t="shared" si="0"/>
         <v>9.76736111111111E-2</v>
       </c>
       <c r="D31" s="31">
-        <f>K31</f>
+        <f t="shared" si="1"/>
         <v>0.1953472222222222</v>
       </c>
       <c r="E31" s="25">
         <v>3</v>
       </c>
       <c r="F31" s="29">
-        <f>J31</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G31" s="24">
-        <f>B31/E31</f>
+        <f t="shared" si="3"/>
         <v>4.6296296296296294E-3</v>
       </c>
       <c r="H31" s="24">
-        <f>G31*3</f>
+        <f t="shared" si="4"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="I31" s="24">
-        <f>G31*10</f>
+        <f t="shared" si="5"/>
         <v>4.6296296296296294E-2</v>
       </c>
       <c r="J31" s="60">
-        <f>$B$3/B31*E31</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K31" s="55">
-        <f>$E$2/E31*B31</f>
+        <f t="shared" si="7"/>
         <v>0.1953472222222222</v>
       </c>
       <c r="L31"/>
@@ -12479,127 +12525,127 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D23:E26 D28:E28 D1 D30:E30 E19:E65530 D4:D65530">
-    <cfRule type="cellIs" dxfId="251" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="254" priority="37" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="253" priority="38" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="39" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F31">
-    <cfRule type="cellIs" dxfId="248" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="251" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="250" priority="41" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="42" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 B4:B65530">
-    <cfRule type="cellIs" dxfId="245" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="248" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="44" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="45" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F26 E28:F28 E30:F30 E3:E31 F19:F65530">
-    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="245" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="47" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="48" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="239" priority="49" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="242" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="50" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="51" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K65530 I1:I1048576">
-    <cfRule type="cellIs" dxfId="236" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="239" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="56" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="57" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="233" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="236" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="11" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="12" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="230" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="233" priority="7" operator="between">
       <formula>0.0118055555555556</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="8" operator="between">
       <formula>0.0100694444444444</formula>
       <formula>0.0118054398148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="9" operator="between">
       <formula>0</formula>
       <formula>0.0100693287037037</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="227" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="229" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -13674,211 +13720,211 @@
     <sortCondition ref="B4:B25"/>
   </sortState>
   <conditionalFormatting sqref="D1 D4:D19 D21:D65512">
-    <cfRule type="cellIs" dxfId="224" priority="52" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="52" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="53" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="54" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="54" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F19 F21:F1048576">
-    <cfRule type="cellIs" dxfId="221" priority="49" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="224" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="50" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="51" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 B4:B19 B21:B65512">
-    <cfRule type="cellIs" dxfId="218" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="47" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="48" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19 E21:E65512">
-    <cfRule type="cellIs" dxfId="215" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="218" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="44" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="45" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C19 C21:C1048576">
-    <cfRule type="cellIs" dxfId="212" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="215" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="41" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="42" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="cellIs" dxfId="209" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="212" priority="31" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="32" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="33" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="cellIs" dxfId="206" priority="28" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="209" priority="28" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="29" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="30" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="203" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="206" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="200" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="203" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="20" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="21" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="197" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="200" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="17" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="18" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="194" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="197" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="14" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="15" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="191" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="194" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="11" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="12" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="188" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="191" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="185" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="5" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="6" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="185" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
@@ -14411,113 +14457,113 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E14:E65494 D1 D4:D65494">
-    <cfRule type="cellIs" dxfId="179" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="182" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="26" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="27" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 F1:F13">
-    <cfRule type="cellIs" dxfId="176" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="179" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="23" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="24" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 B4:B65494">
-    <cfRule type="cellIs" dxfId="173" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="176" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="20" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="21" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F65494 E3:E13">
-    <cfRule type="cellIs" dxfId="170" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="173" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="17" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="18" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="167" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="170" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0624884259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="14" stopIfTrue="1" operator="between">
       <formula>0.0625</formula>
       <formula>0.0763773148148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="15" stopIfTrue="1" operator="between">
       <formula>0.0763888888888889</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="164" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="167" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="5" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="6" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="161" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="164" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0347221064814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0347222222222222</formula>
       <formula>0.0416665509259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>4.16666655092593</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="158" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="161" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
@@ -15597,211 +15643,211 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1 G1:G25 G27:G1048576">
-    <cfRule type="cellIs" dxfId="155" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="40" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="41" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="42" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B25 B27:B1048576">
-    <cfRule type="cellIs" dxfId="152" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="44" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="44" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="45" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="45" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C25 C27:C1048576">
-    <cfRule type="cellIs" dxfId="149" priority="46" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="47" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="47" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="48" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="48" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25 D27:D1048576">
-    <cfRule type="cellIs" dxfId="146" priority="49" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="149" priority="49" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="50" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="50" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="51" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="51" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E25 E27:E1048576">
-    <cfRule type="cellIs" dxfId="143" priority="52" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="52" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="53" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="53" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="54" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="54" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F25 F27:F1048576">
-    <cfRule type="cellIs" dxfId="140" priority="55" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="55" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="56" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="56" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="57" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="57" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H25 H27:H1048576">
-    <cfRule type="cellIs" dxfId="137" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="26" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="27" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="134" priority="22" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="22" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="23" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="23" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="24" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="24" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="131" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="5" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>10.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="6" stopIfTrue="1" operator="between">
       <formula>11</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="128" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="7" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="9" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="125" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="10" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.166655092592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="11" stopIfTrue="1" operator="between">
       <formula>0.166666666666667</formula>
       <formula>0.208321759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="12" stopIfTrue="1" operator="between">
       <formula>0.208333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="122" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="13" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="14" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="14" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="15" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="15" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="119" priority="16" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="16" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="17" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="17" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>299.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="18" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="18" stopIfTrue="1" operator="between">
       <formula>300</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="116" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="19" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>99.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="20" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="20" stopIfTrue="1" operator="between">
       <formula>100</formula>
       <formula>199.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="21" stopIfTrue="1" operator="between">
       <formula>200</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="113" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.00347210648148148</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="2" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00395821759259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="between">
       <formula>"00:05:42:00"</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
@@ -15853,40 +15899,40 @@
       <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="207"/>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="207"/>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="207"/>
-      <c r="AD1" s="207"/>
-      <c r="AE1" s="207"/>
-      <c r="AF1" s="207"/>
-      <c r="AG1" s="207"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
@@ -18305,21 +18351,21 @@
       <c r="A50" s="172"/>
       <c r="K50" s="57"/>
     </row>
-    <row r="51" spans="1:14" s="206" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="198"/>
-      <c r="B51" s="199"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="201"/>
+    <row r="51" spans="1:14" s="205" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="197"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="200"/>
       <c r="E51" s="182"/>
       <c r="F51" s="182"/>
       <c r="G51" s="182"/>
       <c r="H51" s="182"/>
       <c r="I51" s="182"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="202"/>
-      <c r="L51" s="203"/>
-      <c r="M51" s="204"/>
-      <c r="N51" s="205"/>
+      <c r="J51" s="199"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="203"/>
+      <c r="N51" s="204"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N42">
@@ -18327,174 +18373,174 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="22" operator="equal">
       <formula>MAX($C:$C)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="29" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="29" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="30" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="30" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="31" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="31" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="equal">
       <formula>MAX($E:$E)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="32" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="32" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="33" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="33" stopIfTrue="1" operator="between">
       <formula>1000</formula>
       <formula>1999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="34" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="34" stopIfTrue="1" operator="between">
       <formula>2000</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:I1048576">
-    <cfRule type="cellIs" dxfId="102" priority="35" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="35" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>499.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="36" stopIfTrue="1" operator="between">
       <formula>500</formula>
       <formula>999.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="37" stopIfTrue="1" operator="between">
       <formula>1000</formula>
       <formula>9999.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
       <formula>MAX($J:$J)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="38" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0208217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="39" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="39" stopIfTrue="1" operator="between">
       <formula>0.0208333333333333</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="40" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="40" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="94" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="23" operator="equal">
       <formula>MAX($D:$D)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="41" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="41" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>4.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="42" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="42" stopIfTrue="1" operator="between">
       <formula>5</formula>
       <formula>9.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="43" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="43" stopIfTrue="1" operator="between">
       <formula>10</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="90" priority="25" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="25" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="26" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="26" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="27" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="27" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>"99:99:59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="21" operator="equal">
       <formula>MIN($F:$F)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="86" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="20" operator="equal">
       <formula>MAX($G:$G)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="85" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
       <formula>MAX($H:$H)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
       <formula>MAX($I:$I)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>"Steiermark"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>"Rheinsteig"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>"Zillertal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
       <formula>"Berchtesgaden"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
       <formula>"Teneriffa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="equal">
       <formula>"Odenwald"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>"Zugspitze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="16" operator="equal">
       <formula>"Chiemgau"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="17" operator="equal">
       <formula>"Allgäu"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G50">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"Fewo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>"Hütte"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18565,103 +18611,103 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="213">
+      <c r="B1" s="217">
         <f>AT35</f>
         <v>1172.5725</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="217" t="s">
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218">
+      <c r="F1" s="221"/>
+      <c r="G1" s="222">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>42.195</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="219" t="s">
+      <c r="H1" s="222"/>
+      <c r="I1" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220">
+      <c r="J1" s="223"/>
+      <c r="K1" s="224">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>212.435</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="214" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>25.83</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="215"/>
-      <c r="S1" s="216">
+      <c r="R1" s="219"/>
+      <c r="S1" s="220">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>8.7893083857236824</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="229" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="228" t="s">
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="227">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="214">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>4.3556526400824656E-2</v>
       </c>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="225" t="s">
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>0.12475694444444443</v>
       </c>
-      <c r="AJ1" s="226"/>
-      <c r="AK1" s="212" t="s">
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="212"/>
-      <c r="AM1" s="212">
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211">
         <f>MAX(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>0.91526620370370382</v>
       </c>
-      <c r="AN1" s="212"/>
-      <c r="AO1" s="210" t="s">
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="211">
+      <c r="AP1" s="227"/>
+      <c r="AQ1" s="228">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>0.18402777777777779</v>
       </c>
-      <c r="AR1" s="211"/>
-      <c r="AS1" s="209" t="s">
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="208">
+      <c r="AT1" s="226"/>
+      <c r="AU1" s="225">
         <f>AU35</f>
         <v>5.8110995370370366</v>
       </c>
-      <c r="AV1" s="208"/>
+      <c r="AV1" s="225"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -24182,21 +24228,21 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="223" t="s">
+      <c r="K42" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="224"/>
+      <c r="L42" s="210"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="223" t="s">
+      <c r="W42" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="224"/>
+      <c r="X42" s="210"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="221" t="s">
+      <c r="AR42" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="AS42" s="221"/>
+      <c r="AS42" s="207"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -24226,16 +24272,29 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="222" t="s">
+      <c r="AR43" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="AS43" s="222"/>
+      <c r="AS43" s="208"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AR42:AS42"/>
     <mergeCell ref="AR43:AS43"/>
     <mergeCell ref="K42:L42"/>
@@ -24246,86 +24305,73 @@
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
-    <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="106" operator="equal">
       <formula>$AF$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="107" operator="equal">
       <formula>$AJ$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38 AU42:AU43 G38 K38 O38 S38 W38 AA38 AE38 AI38 AM38 AQ38 AU38 X43">
-    <cfRule type="cellIs" dxfId="66" priority="102" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="102" stopIfTrue="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="103" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="103" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D33 H3:H33 L3:L33 P3:P33 T3:T33 X3:X33 AB3:AB33 AJ3:AJ33 AN3:AN33 AR3:AR33 AV3:AV33 AF3:AF33">
-    <cfRule type="cellIs" dxfId="64" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="76" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="76" stopIfTrue="1" operator="between">
       <formula>0.0000000001</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="77" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="77" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00415509259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="78" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="78" stopIfTrue="1" operator="between">
       <formula>0.00416666666666667</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B33 F3:F33 J3:J33 N3:N33 R3:R33 V3:V33 Z3:Z33 AD3:AD33 AH3:AH33 AL3:AL33 AP3:AP33 AT3:AT33">
-    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="72" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="73" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="73" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="74" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="74" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C33 G3:G33 K3:K33 O3:O33 S3:S33 W3:W33 AA3:AA33 AE3:AE33 AI3:AI33 AM3:AM33 AQ3:AQ33 AU3:AU33">
-    <cfRule type="cellIs" dxfId="57" priority="36" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="36" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="37" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="37" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="38" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 F34 J34 N34 R34 V34 Z34 AD34 AH34 AL34 AP34 AT34">
-    <cfRule type="cellIs" dxfId="54" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="321" operator="equal">
       <formula>$P$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="322" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24394,103 +24440,103 @@
       <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="213">
+      <c r="B1" s="217">
         <f>AT35</f>
         <v>195.14000000000001</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="217" t="s">
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218">
+      <c r="F1" s="221"/>
+      <c r="G1" s="222">
         <f>MAX(B36,F36,J36,N36,R36,V36,Z36,AD36,AH36,AL36,AP36,AT36)</f>
         <v>6</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="219" t="s">
+      <c r="H1" s="222"/>
+      <c r="I1" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="220">
+      <c r="J1" s="223"/>
+      <c r="K1" s="224">
         <f>MAX(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>30.200000000000003</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="214" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
       <c r="P1" s="134">
         <f>MIN(B34,F34,J34,N34,R34,V34,Z34,AD34,AH34,AL34,AP34,AT34)</f>
         <v>2</v>
       </c>
-      <c r="Q1" s="215" t="s">
+      <c r="Q1" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="215"/>
-      <c r="S1" s="216">
+      <c r="R1" s="219"/>
+      <c r="S1" s="220">
         <f>IFERROR(AVERAGE(B37,F37,J37,N37,R37,V37,Z37,AD37,AH37,AL37,AP37,AT37),0)</f>
         <v>2.7975333994708991</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="229" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="216" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="228" t="s">
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="227">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="214">
         <f>IFERROR(AVERAGE(C37,G37,K37,O37,S37,W37,AA37,AE37,AI37,AM37,AQ37,AU37),0)</f>
         <v>1.5469386880266509E-2</v>
       </c>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="225" t="s">
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213">
         <f>MIN(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>1.1458333333333333E-2</v>
       </c>
-      <c r="AJ1" s="226"/>
-      <c r="AK1" s="212" t="s">
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="212"/>
-      <c r="AM1" s="212">
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211">
         <f>MAX(C34,G34,K34,O34,S34,W34,AA34,AE34,AI34,AM34,AQ34,AU34)</f>
         <v>0.16354166666666667</v>
       </c>
-      <c r="AN1" s="212"/>
-      <c r="AO1" s="210" t="s">
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="211">
+      <c r="AP1" s="227"/>
+      <c r="AQ1" s="228">
         <f>MAX(C36,G36,K36,O36,S36,W36,AA36,AE36,AI36,AM36,AQ36,AU36)</f>
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="AR1" s="211"/>
-      <c r="AS1" s="209" t="s">
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="209"/>
-      <c r="AU1" s="208">
+      <c r="AT1" s="226"/>
+      <c r="AU1" s="225">
         <f>AU35</f>
         <v>1.0749421296296295</v>
       </c>
-      <c r="AV1" s="208"/>
+      <c r="AV1" s="225"/>
       <c r="AW1" s="74"/>
     </row>
     <row r="2" spans="1:49" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -29727,19 +29773,19 @@
       </c>
       <c r="D42" s="119"/>
       <c r="E42" s="108"/>
-      <c r="K42" s="223" t="s">
+      <c r="K42" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="224"/>
+      <c r="L42" s="210"/>
       <c r="M42" s="120"/>
-      <c r="W42" s="223" t="s">
+      <c r="W42" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="X42" s="224"/>
+      <c r="X42" s="210"/>
       <c r="Y42" s="120"/>
       <c r="AK42" s="120"/>
-      <c r="AR42" s="221"/>
-      <c r="AS42" s="221"/>
+      <c r="AR42" s="207"/>
+      <c r="AS42" s="207"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="98"/>
       <c r="AW42" s="121"/>
@@ -29769,21 +29815,14 @@
       </c>
       <c r="Y43" s="121"/>
       <c r="AK43" s="121"/>
-      <c r="AR43" s="222"/>
-      <c r="AS43" s="222"/>
+      <c r="AR43" s="208"/>
+      <c r="AS43" s="208"/>
       <c r="AT43" s="82"/>
       <c r="AU43" s="98"/>
       <c r="AW43" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="W42:X42"/>
@@ -29800,73 +29839,80 @@
     <mergeCell ref="U1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="C34 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
       <formula>$AF$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
       <formula>$AJ$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38 AU42:AU43 G38 K38 O38 S38 W38 AA38 AE38 AI38 AM38 AQ38 AU38 X43">
-    <cfRule type="cellIs" dxfId="50" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D33 H3:H33 L3:L33 P3:P33 T3:T33 X3:X33 AB3:AB33 AJ3:AJ33 AN3:AN33 AR3:AR33 AV3:AV33 AF3:AF33">
-    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="between">
       <formula>0.0000000001</formula>
       <formula>0.00346064814814815</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="9" stopIfTrue="1" operator="between">
       <formula>0.00347222222222222</formula>
       <formula>0.00415509259259259</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="10" stopIfTrue="1" operator="between">
       <formula>0.00416666666666667</formula>
       <formula>"99:59:59:99"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B33 F3:F33 J3:J33 N3:N33 R3:R33 V3:V33 Z3:Z33 AD3:AD33 AH3:AH33 AL3:AL33 AP3:AP33 AT3:AT33">
-    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>19.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="5" stopIfTrue="1" operator="between">
       <formula>20</formula>
       <formula>29.999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="between">
       <formula>30</formula>
       <formula>99.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C33 G3:G33 K3:K33 O3:O33 S3:S33 W3:W33 AA3:AA33 AE3:AE33 AI3:AI33 AM3:AM33 AQ3:AQ33 AU3:AU33">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>0.0416550925925926</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="between">
       <formula>0.0416666666666667</formula>
       <formula>0.0833217592592593</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="between">
       <formula>0.0833333333333333</formula>
       <formula>4.16665509259259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 F34 J34 N34 R34 V34 Z34 AD34 AH34 AL34 AP34 AT34">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
       <formula>$P$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
   </conditionalFormatting>
